--- a/NPLF LinkedIn Q1.xlsx
+++ b/NPLF LinkedIn Q1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jolieipyingsee/Desktop/github/NPLF-Dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tasha/Desktop/NPLF-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D8CAF6-039F-8A41-987B-96E073F7918A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C9BCC5-E50B-824D-95AC-C6E86779718E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8942,8 +8942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/NPLF LinkedIn Q1.xlsx
+++ b/NPLF LinkedIn Q1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tasha/Desktop/NPLF-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C9BCC5-E50B-824D-95AC-C6E86779718E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800F3D29-DAF6-7B43-A75F-7E211301DE8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="334">
   <si>
     <t>Date</t>
   </si>
@@ -787,6 +787,258 @@
   </si>
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:6664178567900999682</t>
+  </si>
+  <si>
+    <t>07/01/2020</t>
+  </si>
+  <si>
+    <t>07/02/2020</t>
+  </si>
+  <si>
+    <t>07/03/2020</t>
+  </si>
+  <si>
+    <t>07/04/2020</t>
+  </si>
+  <si>
+    <t>07/05/2020</t>
+  </si>
+  <si>
+    <t>07/06/2020</t>
+  </si>
+  <si>
+    <t>07/07/2020</t>
+  </si>
+  <si>
+    <t>07/08/2020</t>
+  </si>
+  <si>
+    <t>07/09/2020</t>
+  </si>
+  <si>
+    <t>07/10/2020</t>
+  </si>
+  <si>
+    <t>07/11/2020</t>
+  </si>
+  <si>
+    <t>07/12/2020</t>
+  </si>
+  <si>
+    <t>07/13/2020</t>
+  </si>
+  <si>
+    <t>07/14/2020</t>
+  </si>
+  <si>
+    <t>07/15/2020</t>
+  </si>
+  <si>
+    <t>07/16/2020</t>
+  </si>
+  <si>
+    <t>07/17/2020</t>
+  </si>
+  <si>
+    <t>07/18/2020</t>
+  </si>
+  <si>
+    <t>07/19/2020</t>
+  </si>
+  <si>
+    <t>07/20/2020</t>
+  </si>
+  <si>
+    <t>07/21/2020</t>
+  </si>
+  <si>
+    <t>07/22/2020</t>
+  </si>
+  <si>
+    <t>07/23/2020</t>
+  </si>
+  <si>
+    <t>07/24/2020</t>
+  </si>
+  <si>
+    <t>07/25/2020</t>
+  </si>
+  <si>
+    <t>07/26/2020</t>
+  </si>
+  <si>
+    <t>07/27/2020</t>
+  </si>
+  <si>
+    <t>07/28/2020</t>
+  </si>
+  <si>
+    <t>07/29/2020</t>
+  </si>
+  <si>
+    <t>07/30/2020</t>
+  </si>
+  <si>
+    <t>07/31/2020</t>
+  </si>
+  <si>
+    <t>08/01/2020</t>
+  </si>
+  <si>
+    <t>08/02/2020</t>
+  </si>
+  <si>
+    <t>08/03/2020</t>
+  </si>
+  <si>
+    <t>08/04/2020</t>
+  </si>
+  <si>
+    <t>08/05/2020</t>
+  </si>
+  <si>
+    <t>08/06/2020</t>
+  </si>
+  <si>
+    <t>08/07/2020</t>
+  </si>
+  <si>
+    <t>08/08/2020</t>
+  </si>
+  <si>
+    <t>08/09/2020</t>
+  </si>
+  <si>
+    <t>08/10/2020</t>
+  </si>
+  <si>
+    <t>08/11/2020</t>
+  </si>
+  <si>
+    <t>08/12/2020</t>
+  </si>
+  <si>
+    <t>08/13/2020</t>
+  </si>
+  <si>
+    <t>08/14/2020</t>
+  </si>
+  <si>
+    <t>08/15/2020</t>
+  </si>
+  <si>
+    <t>08/16/2020</t>
+  </si>
+  <si>
+    <t>08/17/2020</t>
+  </si>
+  <si>
+    <t>08/18/2020</t>
+  </si>
+  <si>
+    <t>08/19/2020</t>
+  </si>
+  <si>
+    <t>08/20/2020</t>
+  </si>
+  <si>
+    <t>08/21/2020</t>
+  </si>
+  <si>
+    <t>08/22/2020</t>
+  </si>
+  <si>
+    <t>08/23/2020</t>
+  </si>
+  <si>
+    <t>08/24/2020</t>
+  </si>
+  <si>
+    <t>08/25/2020</t>
+  </si>
+  <si>
+    <t>08/26/2020</t>
+  </si>
+  <si>
+    <t>08/27/2020</t>
+  </si>
+  <si>
+    <t>08/28/2020</t>
+  </si>
+  <si>
+    <t>08/29/2020</t>
+  </si>
+  <si>
+    <t>08/30/2020</t>
+  </si>
+  <si>
+    <t>08/31/2020</t>
+  </si>
+  <si>
+    <t>09/01/2020</t>
+  </si>
+  <si>
+    <t>09/02/2020</t>
+  </si>
+  <si>
+    <t>09/03/2020</t>
+  </si>
+  <si>
+    <t>09/04/2020</t>
+  </si>
+  <si>
+    <t>09/05/2020</t>
+  </si>
+  <si>
+    <t>09/06/2020</t>
+  </si>
+  <si>
+    <t>09/07/2020</t>
+  </si>
+  <si>
+    <t>09/08/2020</t>
+  </si>
+  <si>
+    <t>09/09/2020</t>
+  </si>
+  <si>
+    <t>09/10/2020</t>
+  </si>
+  <si>
+    <t>09/11/2020</t>
+  </si>
+  <si>
+    <t>09/12/2020</t>
+  </si>
+  <si>
+    <t>09/13/2020</t>
+  </si>
+  <si>
+    <t>09/14/2020</t>
+  </si>
+  <si>
+    <t>09/15/2020</t>
+  </si>
+  <si>
+    <t>09/16/2020</t>
+  </si>
+  <si>
+    <t>09/17/2020</t>
+  </si>
+  <si>
+    <t>09/18/2020</t>
+  </si>
+  <si>
+    <t>09/19/2020</t>
+  </si>
+  <si>
+    <t>09/20/2020</t>
+  </si>
+  <si>
+    <t>09/21/2020</t>
+  </si>
+  <si>
+    <t>09/22/2020</t>
   </si>
 </sst>
 </file>
@@ -802,6 +1054,7 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -8940,10 +9193,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:T92"/>
+  <dimension ref="A1:T176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -14674,6 +14927,5214 @@
         <v>0.21875</v>
       </c>
     </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B93" s="2">
+        <v>17</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
+        <v>17</v>
+      </c>
+      <c r="E93" s="2">
+        <v>7</v>
+      </c>
+      <c r="F93" s="2">
+        <v>1</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2">
+        <v>1</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0</v>
+      </c>
+      <c r="K93" s="2">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2">
+        <v>0</v>
+      </c>
+      <c r="M93" s="2">
+        <v>0</v>
+      </c>
+      <c r="N93" s="2">
+        <v>0</v>
+      </c>
+      <c r="O93" s="2">
+        <v>0</v>
+      </c>
+      <c r="P93" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>0</v>
+      </c>
+      <c r="R93" s="2">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="S93" s="2">
+        <v>0</v>
+      </c>
+      <c r="T93" s="2">
+        <v>5.8823529411764698E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B94" s="2">
+        <v>2475</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>2475</v>
+      </c>
+      <c r="E94" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F94" s="2">
+        <v>16</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
+        <v>16</v>
+      </c>
+      <c r="I94" s="2">
+        <v>10</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0</v>
+      </c>
+      <c r="K94" s="2">
+        <v>10</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0</v>
+      </c>
+      <c r="M94" s="2">
+        <v>0</v>
+      </c>
+      <c r="N94" s="2">
+        <v>0</v>
+      </c>
+      <c r="O94" s="2">
+        <v>1</v>
+      </c>
+      <c r="P94" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>1</v>
+      </c>
+      <c r="R94" s="2">
+        <v>1.09090909090909E-2</v>
+      </c>
+      <c r="S94" s="2">
+        <v>0</v>
+      </c>
+      <c r="T94" s="2">
+        <v>1.09090909090909E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1285</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1285</v>
+      </c>
+      <c r="E95" s="2">
+        <v>1010</v>
+      </c>
+      <c r="F95" s="2">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2">
+        <v>10</v>
+      </c>
+      <c r="I95" s="2">
+        <v>8</v>
+      </c>
+      <c r="J95" s="2">
+        <v>0</v>
+      </c>
+      <c r="K95" s="2">
+        <v>8</v>
+      </c>
+      <c r="L95" s="2">
+        <v>0</v>
+      </c>
+      <c r="M95" s="2">
+        <v>0</v>
+      </c>
+      <c r="N95" s="2">
+        <v>0</v>
+      </c>
+      <c r="O95" s="2">
+        <v>0</v>
+      </c>
+      <c r="P95" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>0</v>
+      </c>
+      <c r="R95" s="2">
+        <v>1.40077821011673E-2</v>
+      </c>
+      <c r="S95" s="2">
+        <v>0</v>
+      </c>
+      <c r="T95" s="2">
+        <v>1.40077821011673E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B96" s="2">
+        <v>38</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0</v>
+      </c>
+      <c r="D96" s="2">
+        <v>38</v>
+      </c>
+      <c r="E96" s="2">
+        <v>25</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0</v>
+      </c>
+      <c r="I96" s="2">
+        <v>1</v>
+      </c>
+      <c r="J96" s="2">
+        <v>0</v>
+      </c>
+      <c r="K96" s="2">
+        <v>1</v>
+      </c>
+      <c r="L96" s="2">
+        <v>0</v>
+      </c>
+      <c r="M96" s="2">
+        <v>0</v>
+      </c>
+      <c r="N96" s="2">
+        <v>0</v>
+      </c>
+      <c r="O96" s="2">
+        <v>0</v>
+      </c>
+      <c r="P96" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>0</v>
+      </c>
+      <c r="R96" s="2">
+        <v>2.6315789473684199E-2</v>
+      </c>
+      <c r="S96" s="2">
+        <v>0</v>
+      </c>
+      <c r="T96" s="2">
+        <v>2.6315789473684199E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B97" s="2">
+        <v>59</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2">
+        <v>59</v>
+      </c>
+      <c r="E97" s="2">
+        <v>25</v>
+      </c>
+      <c r="F97" s="2">
+        <v>3</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
+        <v>3</v>
+      </c>
+      <c r="I97" s="2">
+        <v>1</v>
+      </c>
+      <c r="J97" s="2">
+        <v>0</v>
+      </c>
+      <c r="K97" s="2">
+        <v>1</v>
+      </c>
+      <c r="L97" s="2">
+        <v>0</v>
+      </c>
+      <c r="M97" s="2">
+        <v>0</v>
+      </c>
+      <c r="N97" s="2">
+        <v>0</v>
+      </c>
+      <c r="O97" s="2">
+        <v>0</v>
+      </c>
+      <c r="P97" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>0</v>
+      </c>
+      <c r="R97" s="2">
+        <v>6.7796610169491497E-2</v>
+      </c>
+      <c r="S97" s="2">
+        <v>0</v>
+      </c>
+      <c r="T97" s="2">
+        <v>6.7796610169491497E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B98" s="2">
+        <v>29</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0</v>
+      </c>
+      <c r="D98" s="2">
+        <v>29</v>
+      </c>
+      <c r="E98" s="2">
+        <v>26</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0</v>
+      </c>
+      <c r="I98" s="2">
+        <v>1</v>
+      </c>
+      <c r="J98" s="2">
+        <v>0</v>
+      </c>
+      <c r="K98" s="2">
+        <v>1</v>
+      </c>
+      <c r="L98" s="2">
+        <v>0</v>
+      </c>
+      <c r="M98" s="2">
+        <v>0</v>
+      </c>
+      <c r="N98" s="2">
+        <v>0</v>
+      </c>
+      <c r="O98" s="2">
+        <v>0</v>
+      </c>
+      <c r="P98" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>0</v>
+      </c>
+      <c r="R98" s="2">
+        <v>3.4482758620689703E-2</v>
+      </c>
+      <c r="S98" s="2">
+        <v>0</v>
+      </c>
+      <c r="T98" s="2">
+        <v>3.4482758620689703E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B99" s="2">
+        <v>519</v>
+      </c>
+      <c r="C99" s="2">
+        <v>0</v>
+      </c>
+      <c r="D99" s="2">
+        <v>519</v>
+      </c>
+      <c r="E99" s="2">
+        <v>309</v>
+      </c>
+      <c r="F99" s="2">
+        <v>26</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0</v>
+      </c>
+      <c r="H99" s="2">
+        <v>26</v>
+      </c>
+      <c r="I99" s="2">
+        <v>26</v>
+      </c>
+      <c r="J99" s="2">
+        <v>0</v>
+      </c>
+      <c r="K99" s="2">
+        <v>26</v>
+      </c>
+      <c r="L99" s="2">
+        <v>3</v>
+      </c>
+      <c r="M99" s="2">
+        <v>0</v>
+      </c>
+      <c r="N99" s="2">
+        <v>3</v>
+      </c>
+      <c r="O99" s="2">
+        <v>0</v>
+      </c>
+      <c r="P99" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>0</v>
+      </c>
+      <c r="R99" s="2">
+        <v>0.10597302504816999</v>
+      </c>
+      <c r="S99" s="2">
+        <v>0</v>
+      </c>
+      <c r="T99" s="2">
+        <v>0.10597302504816999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1096</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0</v>
+      </c>
+      <c r="D100" s="2">
+        <v>1096</v>
+      </c>
+      <c r="E100" s="2">
+        <v>784</v>
+      </c>
+      <c r="F100" s="2">
+        <v>34</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0</v>
+      </c>
+      <c r="H100" s="2">
+        <v>34</v>
+      </c>
+      <c r="I100" s="2">
+        <v>38</v>
+      </c>
+      <c r="J100" s="2">
+        <v>0</v>
+      </c>
+      <c r="K100" s="2">
+        <v>38</v>
+      </c>
+      <c r="L100" s="2">
+        <v>6</v>
+      </c>
+      <c r="M100" s="2">
+        <v>0</v>
+      </c>
+      <c r="N100" s="2">
+        <v>6</v>
+      </c>
+      <c r="O100" s="2">
+        <v>0</v>
+      </c>
+      <c r="P100" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>0</v>
+      </c>
+      <c r="R100" s="2">
+        <v>7.1167883211678801E-2</v>
+      </c>
+      <c r="S100" s="2">
+        <v>0</v>
+      </c>
+      <c r="T100" s="2">
+        <v>7.1167883211678801E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A101" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B101" s="2">
+        <v>690</v>
+      </c>
+      <c r="C101" s="2">
+        <v>0</v>
+      </c>
+      <c r="D101" s="2">
+        <v>690</v>
+      </c>
+      <c r="E101" s="2">
+        <v>460</v>
+      </c>
+      <c r="F101" s="2">
+        <v>16</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0</v>
+      </c>
+      <c r="H101" s="2">
+        <v>16</v>
+      </c>
+      <c r="I101" s="2">
+        <v>22</v>
+      </c>
+      <c r="J101" s="2">
+        <v>0</v>
+      </c>
+      <c r="K101" s="2">
+        <v>22</v>
+      </c>
+      <c r="L101" s="2">
+        <v>1</v>
+      </c>
+      <c r="M101" s="2">
+        <v>0</v>
+      </c>
+      <c r="N101" s="2">
+        <v>1</v>
+      </c>
+      <c r="O101" s="2">
+        <v>0</v>
+      </c>
+      <c r="P101" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>0</v>
+      </c>
+      <c r="R101" s="2">
+        <v>5.6521739130434803E-2</v>
+      </c>
+      <c r="S101" s="2">
+        <v>0</v>
+      </c>
+      <c r="T101" s="2">
+        <v>5.6521739130434803E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A102" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B102" s="2">
+        <v>320</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2">
+        <v>320</v>
+      </c>
+      <c r="E102" s="2">
+        <v>238</v>
+      </c>
+      <c r="F102" s="2">
+        <v>11</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2">
+        <v>11</v>
+      </c>
+      <c r="I102" s="2">
+        <v>13</v>
+      </c>
+      <c r="J102" s="2">
+        <v>0</v>
+      </c>
+      <c r="K102" s="2">
+        <v>13</v>
+      </c>
+      <c r="L102" s="2">
+        <v>2</v>
+      </c>
+      <c r="M102" s="2">
+        <v>0</v>
+      </c>
+      <c r="N102" s="2">
+        <v>2</v>
+      </c>
+      <c r="O102" s="2">
+        <v>1</v>
+      </c>
+      <c r="P102" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>1</v>
+      </c>
+      <c r="R102" s="2">
+        <v>8.4375000000000006E-2</v>
+      </c>
+      <c r="S102" s="2">
+        <v>0</v>
+      </c>
+      <c r="T102" s="2">
+        <v>8.4375000000000006E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A103" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B103" s="2">
+        <v>229</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2">
+        <v>229</v>
+      </c>
+      <c r="E103" s="2">
+        <v>172</v>
+      </c>
+      <c r="F103" s="2">
+        <v>2</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0</v>
+      </c>
+      <c r="H103" s="2">
+        <v>2</v>
+      </c>
+      <c r="I103" s="2">
+        <v>8</v>
+      </c>
+      <c r="J103" s="2">
+        <v>0</v>
+      </c>
+      <c r="K103" s="2">
+        <v>8</v>
+      </c>
+      <c r="L103" s="2">
+        <v>3</v>
+      </c>
+      <c r="M103" s="2">
+        <v>0</v>
+      </c>
+      <c r="N103" s="2">
+        <v>3</v>
+      </c>
+      <c r="O103" s="2">
+        <v>0</v>
+      </c>
+      <c r="P103" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>0</v>
+      </c>
+      <c r="R103" s="2">
+        <v>5.6768558951965101E-2</v>
+      </c>
+      <c r="S103" s="2">
+        <v>0</v>
+      </c>
+      <c r="T103" s="2">
+        <v>5.6768558951965101E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B104" s="2">
+        <v>294</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0</v>
+      </c>
+      <c r="D104" s="2">
+        <v>294</v>
+      </c>
+      <c r="E104" s="2">
+        <v>214</v>
+      </c>
+      <c r="F104" s="2">
+        <v>8</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2">
+        <v>8</v>
+      </c>
+      <c r="I104" s="2">
+        <v>7</v>
+      </c>
+      <c r="J104" s="2">
+        <v>0</v>
+      </c>
+      <c r="K104" s="2">
+        <v>7</v>
+      </c>
+      <c r="L104" s="2">
+        <v>1</v>
+      </c>
+      <c r="M104" s="2">
+        <v>0</v>
+      </c>
+      <c r="N104" s="2">
+        <v>1</v>
+      </c>
+      <c r="O104" s="2">
+        <v>0</v>
+      </c>
+      <c r="P104" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>0</v>
+      </c>
+      <c r="R104" s="2">
+        <v>5.4421768707482998E-2</v>
+      </c>
+      <c r="S104" s="2">
+        <v>0</v>
+      </c>
+      <c r="T104" s="2">
+        <v>5.4421768707482998E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B105" s="2">
+        <v>524</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0</v>
+      </c>
+      <c r="D105" s="2">
+        <v>524</v>
+      </c>
+      <c r="E105" s="2">
+        <v>347</v>
+      </c>
+      <c r="F105" s="2">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0</v>
+      </c>
+      <c r="H105" s="2">
+        <v>10</v>
+      </c>
+      <c r="I105" s="2">
+        <v>10</v>
+      </c>
+      <c r="J105" s="2">
+        <v>0</v>
+      </c>
+      <c r="K105" s="2">
+        <v>10</v>
+      </c>
+      <c r="L105" s="2">
+        <v>2</v>
+      </c>
+      <c r="M105" s="2">
+        <v>0</v>
+      </c>
+      <c r="N105" s="2">
+        <v>2</v>
+      </c>
+      <c r="O105" s="2">
+        <v>1</v>
+      </c>
+      <c r="P105" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>1</v>
+      </c>
+      <c r="R105" s="2">
+        <v>4.3893129770992398E-2</v>
+      </c>
+      <c r="S105" s="2">
+        <v>0</v>
+      </c>
+      <c r="T105" s="2">
+        <v>4.3893129770992398E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A106" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B106" s="2">
+        <v>586</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0</v>
+      </c>
+      <c r="D106" s="2">
+        <v>586</v>
+      </c>
+      <c r="E106" s="2">
+        <v>382</v>
+      </c>
+      <c r="F106" s="2">
+        <v>19</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0</v>
+      </c>
+      <c r="H106" s="2">
+        <v>19</v>
+      </c>
+      <c r="I106" s="2">
+        <v>24</v>
+      </c>
+      <c r="J106" s="2">
+        <v>0</v>
+      </c>
+      <c r="K106" s="2">
+        <v>24</v>
+      </c>
+      <c r="L106" s="2">
+        <v>4</v>
+      </c>
+      <c r="M106" s="2">
+        <v>0</v>
+      </c>
+      <c r="N106" s="2">
+        <v>4</v>
+      </c>
+      <c r="O106" s="2">
+        <v>1</v>
+      </c>
+      <c r="P106" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>1</v>
+      </c>
+      <c r="R106" s="2">
+        <v>8.1911262798634796E-2</v>
+      </c>
+      <c r="S106" s="2">
+        <v>0</v>
+      </c>
+      <c r="T106" s="2">
+        <v>8.1911262798634796E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A107" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B107" s="2">
+        <v>680</v>
+      </c>
+      <c r="C107" s="2">
+        <v>0</v>
+      </c>
+      <c r="D107" s="2">
+        <v>680</v>
+      </c>
+      <c r="E107" s="2">
+        <v>432</v>
+      </c>
+      <c r="F107" s="2">
+        <v>21</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0</v>
+      </c>
+      <c r="H107" s="2">
+        <v>21</v>
+      </c>
+      <c r="I107" s="2">
+        <v>23</v>
+      </c>
+      <c r="J107" s="2">
+        <v>0</v>
+      </c>
+      <c r="K107" s="2">
+        <v>23</v>
+      </c>
+      <c r="L107" s="2">
+        <v>0</v>
+      </c>
+      <c r="M107" s="2">
+        <v>0</v>
+      </c>
+      <c r="N107" s="2">
+        <v>0</v>
+      </c>
+      <c r="O107" s="2">
+        <v>0</v>
+      </c>
+      <c r="P107" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>0</v>
+      </c>
+      <c r="R107" s="2">
+        <v>6.4705882352941196E-2</v>
+      </c>
+      <c r="S107" s="2">
+        <v>0</v>
+      </c>
+      <c r="T107" s="2">
+        <v>6.4705882352941196E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B108" s="2">
+        <v>769</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0</v>
+      </c>
+      <c r="D108" s="2">
+        <v>769</v>
+      </c>
+      <c r="E108" s="2">
+        <v>530</v>
+      </c>
+      <c r="F108" s="2">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2">
+        <v>0</v>
+      </c>
+      <c r="H108" s="2">
+        <v>10</v>
+      </c>
+      <c r="I108" s="2">
+        <v>24</v>
+      </c>
+      <c r="J108" s="2">
+        <v>0</v>
+      </c>
+      <c r="K108" s="2">
+        <v>24</v>
+      </c>
+      <c r="L108" s="2">
+        <v>4</v>
+      </c>
+      <c r="M108" s="2">
+        <v>0</v>
+      </c>
+      <c r="N108" s="2">
+        <v>4</v>
+      </c>
+      <c r="O108" s="2">
+        <v>1</v>
+      </c>
+      <c r="P108" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="2">
+        <v>1</v>
+      </c>
+      <c r="R108" s="2">
+        <v>5.0715214564369303E-2</v>
+      </c>
+      <c r="S108" s="2">
+        <v>0</v>
+      </c>
+      <c r="T108" s="2">
+        <v>5.0715214564369303E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B109" s="2">
+        <v>913</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0</v>
+      </c>
+      <c r="D109" s="2">
+        <v>913</v>
+      </c>
+      <c r="E109" s="2">
+        <v>642</v>
+      </c>
+      <c r="F109" s="2">
+        <v>20</v>
+      </c>
+      <c r="G109" s="2">
+        <v>0</v>
+      </c>
+      <c r="H109" s="2">
+        <v>20</v>
+      </c>
+      <c r="I109" s="2">
+        <v>18</v>
+      </c>
+      <c r="J109" s="2">
+        <v>0</v>
+      </c>
+      <c r="K109" s="2">
+        <v>18</v>
+      </c>
+      <c r="L109" s="2">
+        <v>2</v>
+      </c>
+      <c r="M109" s="2">
+        <v>0</v>
+      </c>
+      <c r="N109" s="2">
+        <v>2</v>
+      </c>
+      <c r="O109" s="2">
+        <v>0</v>
+      </c>
+      <c r="P109" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>0</v>
+      </c>
+      <c r="R109" s="2">
+        <v>4.3811610076670303E-2</v>
+      </c>
+      <c r="S109" s="2">
+        <v>0</v>
+      </c>
+      <c r="T109" s="2">
+        <v>4.3811610076670303E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A110" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B110" s="2">
+        <v>826</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0</v>
+      </c>
+      <c r="D110" s="2">
+        <v>826</v>
+      </c>
+      <c r="E110" s="2">
+        <v>551</v>
+      </c>
+      <c r="F110" s="2">
+        <v>20</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0</v>
+      </c>
+      <c r="H110" s="2">
+        <v>20</v>
+      </c>
+      <c r="I110" s="2">
+        <v>16</v>
+      </c>
+      <c r="J110" s="2">
+        <v>0</v>
+      </c>
+      <c r="K110" s="2">
+        <v>16</v>
+      </c>
+      <c r="L110" s="2">
+        <v>1</v>
+      </c>
+      <c r="M110" s="2">
+        <v>0</v>
+      </c>
+      <c r="N110" s="2">
+        <v>1</v>
+      </c>
+      <c r="O110" s="2">
+        <v>2</v>
+      </c>
+      <c r="P110" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>2</v>
+      </c>
+      <c r="R110" s="2">
+        <v>4.7215496368038699E-2</v>
+      </c>
+      <c r="S110" s="2">
+        <v>0</v>
+      </c>
+      <c r="T110" s="2">
+        <v>4.7215496368038699E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A111" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B111" s="2">
+        <v>582</v>
+      </c>
+      <c r="C111" s="2">
+        <v>0</v>
+      </c>
+      <c r="D111" s="2">
+        <v>582</v>
+      </c>
+      <c r="E111" s="2">
+        <v>414</v>
+      </c>
+      <c r="F111" s="2">
+        <v>13</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0</v>
+      </c>
+      <c r="H111" s="2">
+        <v>13</v>
+      </c>
+      <c r="I111" s="2">
+        <v>15</v>
+      </c>
+      <c r="J111" s="2">
+        <v>0</v>
+      </c>
+      <c r="K111" s="2">
+        <v>15</v>
+      </c>
+      <c r="L111" s="2">
+        <v>0</v>
+      </c>
+      <c r="M111" s="2">
+        <v>0</v>
+      </c>
+      <c r="N111" s="2">
+        <v>0</v>
+      </c>
+      <c r="O111" s="2">
+        <v>1</v>
+      </c>
+      <c r="P111" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>1</v>
+      </c>
+      <c r="R111" s="2">
+        <v>4.98281786941581E-2</v>
+      </c>
+      <c r="S111" s="2">
+        <v>0</v>
+      </c>
+      <c r="T111" s="2">
+        <v>4.98281786941581E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A112" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B112" s="2">
+        <v>792</v>
+      </c>
+      <c r="C112" s="2">
+        <v>0</v>
+      </c>
+      <c r="D112" s="2">
+        <v>792</v>
+      </c>
+      <c r="E112" s="2">
+        <v>568</v>
+      </c>
+      <c r="F112" s="2">
+        <v>19</v>
+      </c>
+      <c r="G112" s="2">
+        <v>0</v>
+      </c>
+      <c r="H112" s="2">
+        <v>19</v>
+      </c>
+      <c r="I112" s="2">
+        <v>16</v>
+      </c>
+      <c r="J112" s="2">
+        <v>0</v>
+      </c>
+      <c r="K112" s="2">
+        <v>16</v>
+      </c>
+      <c r="L112" s="2">
+        <v>3</v>
+      </c>
+      <c r="M112" s="2">
+        <v>0</v>
+      </c>
+      <c r="N112" s="2">
+        <v>3</v>
+      </c>
+      <c r="O112" s="2">
+        <v>1</v>
+      </c>
+      <c r="P112" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>1</v>
+      </c>
+      <c r="R112" s="2">
+        <v>4.9242424242424199E-2</v>
+      </c>
+      <c r="S112" s="2">
+        <v>0</v>
+      </c>
+      <c r="T112" s="2">
+        <v>4.9242424242424199E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A113" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B113" s="2">
+        <v>812</v>
+      </c>
+      <c r="C113" s="2">
+        <v>0</v>
+      </c>
+      <c r="D113" s="2">
+        <v>812</v>
+      </c>
+      <c r="E113" s="2">
+        <v>599</v>
+      </c>
+      <c r="F113" s="2">
+        <v>18</v>
+      </c>
+      <c r="G113" s="2">
+        <v>0</v>
+      </c>
+      <c r="H113" s="2">
+        <v>18</v>
+      </c>
+      <c r="I113" s="2">
+        <v>10</v>
+      </c>
+      <c r="J113" s="2">
+        <v>0</v>
+      </c>
+      <c r="K113" s="2">
+        <v>10</v>
+      </c>
+      <c r="L113" s="2">
+        <v>0</v>
+      </c>
+      <c r="M113" s="2">
+        <v>0</v>
+      </c>
+      <c r="N113" s="2">
+        <v>0</v>
+      </c>
+      <c r="O113" s="2">
+        <v>2</v>
+      </c>
+      <c r="P113" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>2</v>
+      </c>
+      <c r="R113" s="2">
+        <v>3.6945812807881798E-2</v>
+      </c>
+      <c r="S113" s="2">
+        <v>0</v>
+      </c>
+      <c r="T113" s="2">
+        <v>3.6945812807881798E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B114" s="2">
+        <v>655</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0</v>
+      </c>
+      <c r="D114" s="2">
+        <v>655</v>
+      </c>
+      <c r="E114" s="2">
+        <v>447</v>
+      </c>
+      <c r="F114" s="2">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2">
+        <v>10</v>
+      </c>
+      <c r="I114" s="2">
+        <v>16</v>
+      </c>
+      <c r="J114" s="2">
+        <v>0</v>
+      </c>
+      <c r="K114" s="2">
+        <v>16</v>
+      </c>
+      <c r="L114" s="2">
+        <v>2</v>
+      </c>
+      <c r="M114" s="2">
+        <v>0</v>
+      </c>
+      <c r="N114" s="2">
+        <v>2</v>
+      </c>
+      <c r="O114" s="2">
+        <v>1</v>
+      </c>
+      <c r="P114" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>1</v>
+      </c>
+      <c r="R114" s="2">
+        <v>4.4274809160305302E-2</v>
+      </c>
+      <c r="S114" s="2">
+        <v>0</v>
+      </c>
+      <c r="T114" s="2">
+        <v>4.4274809160305302E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B115" s="2">
+        <v>549</v>
+      </c>
+      <c r="C115" s="2">
+        <v>0</v>
+      </c>
+      <c r="D115" s="2">
+        <v>549</v>
+      </c>
+      <c r="E115" s="2">
+        <v>383</v>
+      </c>
+      <c r="F115" s="2">
+        <v>2</v>
+      </c>
+      <c r="G115" s="2">
+        <v>0</v>
+      </c>
+      <c r="H115" s="2">
+        <v>2</v>
+      </c>
+      <c r="I115" s="2">
+        <v>13</v>
+      </c>
+      <c r="J115" s="2">
+        <v>0</v>
+      </c>
+      <c r="K115" s="2">
+        <v>13</v>
+      </c>
+      <c r="L115" s="2">
+        <v>0</v>
+      </c>
+      <c r="M115" s="2">
+        <v>0</v>
+      </c>
+      <c r="N115" s="2">
+        <v>0</v>
+      </c>
+      <c r="O115" s="2">
+        <v>0</v>
+      </c>
+      <c r="P115" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="2">
+        <v>0</v>
+      </c>
+      <c r="R115" s="2">
+        <v>2.7322404371584699E-2</v>
+      </c>
+      <c r="S115" s="2">
+        <v>0</v>
+      </c>
+      <c r="T115" s="2">
+        <v>2.7322404371584699E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A116" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B116" s="2">
+        <v>376</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0</v>
+      </c>
+      <c r="D116" s="2">
+        <v>376</v>
+      </c>
+      <c r="E116" s="2">
+        <v>251</v>
+      </c>
+      <c r="F116" s="2">
+        <v>12</v>
+      </c>
+      <c r="G116" s="2">
+        <v>0</v>
+      </c>
+      <c r="H116" s="2">
+        <v>12</v>
+      </c>
+      <c r="I116" s="2">
+        <v>5</v>
+      </c>
+      <c r="J116" s="2">
+        <v>0</v>
+      </c>
+      <c r="K116" s="2">
+        <v>5</v>
+      </c>
+      <c r="L116" s="2">
+        <v>0</v>
+      </c>
+      <c r="M116" s="2">
+        <v>0</v>
+      </c>
+      <c r="N116" s="2">
+        <v>0</v>
+      </c>
+      <c r="O116" s="2">
+        <v>0</v>
+      </c>
+      <c r="P116" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="2">
+        <v>0</v>
+      </c>
+      <c r="R116" s="2">
+        <v>4.5212765957446797E-2</v>
+      </c>
+      <c r="S116" s="2">
+        <v>0</v>
+      </c>
+      <c r="T116" s="2">
+        <v>4.5212765957446797E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A117" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B117" s="2">
+        <v>160</v>
+      </c>
+      <c r="C117" s="2">
+        <v>0</v>
+      </c>
+      <c r="D117" s="2">
+        <v>160</v>
+      </c>
+      <c r="E117" s="2">
+        <v>115</v>
+      </c>
+      <c r="F117" s="2">
+        <v>2</v>
+      </c>
+      <c r="G117" s="2">
+        <v>0</v>
+      </c>
+      <c r="H117" s="2">
+        <v>2</v>
+      </c>
+      <c r="I117" s="2">
+        <v>5</v>
+      </c>
+      <c r="J117" s="2">
+        <v>0</v>
+      </c>
+      <c r="K117" s="2">
+        <v>5</v>
+      </c>
+      <c r="L117" s="2">
+        <v>0</v>
+      </c>
+      <c r="M117" s="2">
+        <v>0</v>
+      </c>
+      <c r="N117" s="2">
+        <v>0</v>
+      </c>
+      <c r="O117" s="2">
+        <v>1</v>
+      </c>
+      <c r="P117" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="2">
+        <v>1</v>
+      </c>
+      <c r="R117" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="S117" s="2">
+        <v>0</v>
+      </c>
+      <c r="T117" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B118" s="2">
+        <v>236</v>
+      </c>
+      <c r="C118" s="2">
+        <v>0</v>
+      </c>
+      <c r="D118" s="2">
+        <v>236</v>
+      </c>
+      <c r="E118" s="2">
+        <v>165</v>
+      </c>
+      <c r="F118" s="2">
+        <v>6</v>
+      </c>
+      <c r="G118" s="2">
+        <v>0</v>
+      </c>
+      <c r="H118" s="2">
+        <v>6</v>
+      </c>
+      <c r="I118" s="2">
+        <v>6</v>
+      </c>
+      <c r="J118" s="2">
+        <v>0</v>
+      </c>
+      <c r="K118" s="2">
+        <v>6</v>
+      </c>
+      <c r="L118" s="2">
+        <v>0</v>
+      </c>
+      <c r="M118" s="2">
+        <v>0</v>
+      </c>
+      <c r="N118" s="2">
+        <v>0</v>
+      </c>
+      <c r="O118" s="2">
+        <v>0</v>
+      </c>
+      <c r="P118" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="2">
+        <v>0</v>
+      </c>
+      <c r="R118" s="2">
+        <v>5.0847457627118703E-2</v>
+      </c>
+      <c r="S118" s="2">
+        <v>0</v>
+      </c>
+      <c r="T118" s="2">
+        <v>5.0847457627118703E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A119" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B119" s="2">
+        <v>303</v>
+      </c>
+      <c r="C119" s="2">
+        <v>0</v>
+      </c>
+      <c r="D119" s="2">
+        <v>303</v>
+      </c>
+      <c r="E119" s="2">
+        <v>234</v>
+      </c>
+      <c r="F119" s="2">
+        <v>0</v>
+      </c>
+      <c r="G119" s="2">
+        <v>0</v>
+      </c>
+      <c r="H119" s="2">
+        <v>0</v>
+      </c>
+      <c r="I119" s="2">
+        <v>8</v>
+      </c>
+      <c r="J119" s="2">
+        <v>0</v>
+      </c>
+      <c r="K119" s="2">
+        <v>8</v>
+      </c>
+      <c r="L119" s="2">
+        <v>1</v>
+      </c>
+      <c r="M119" s="2">
+        <v>0</v>
+      </c>
+      <c r="N119" s="2">
+        <v>1</v>
+      </c>
+      <c r="O119" s="2">
+        <v>0</v>
+      </c>
+      <c r="P119" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="2">
+        <v>0</v>
+      </c>
+      <c r="R119" s="2">
+        <v>2.9702970297029702E-2</v>
+      </c>
+      <c r="S119" s="2">
+        <v>0</v>
+      </c>
+      <c r="T119" s="2">
+        <v>2.9702970297029702E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A120" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B120" s="2">
+        <v>220</v>
+      </c>
+      <c r="C120" s="2">
+        <v>0</v>
+      </c>
+      <c r="D120" s="2">
+        <v>220</v>
+      </c>
+      <c r="E120" s="2">
+        <v>164</v>
+      </c>
+      <c r="F120" s="2">
+        <v>2</v>
+      </c>
+      <c r="G120" s="2">
+        <v>0</v>
+      </c>
+      <c r="H120" s="2">
+        <v>2</v>
+      </c>
+      <c r="I120" s="2">
+        <v>7</v>
+      </c>
+      <c r="J120" s="2">
+        <v>0</v>
+      </c>
+      <c r="K120" s="2">
+        <v>7</v>
+      </c>
+      <c r="L120" s="2">
+        <v>0</v>
+      </c>
+      <c r="M120" s="2">
+        <v>0</v>
+      </c>
+      <c r="N120" s="2">
+        <v>0</v>
+      </c>
+      <c r="O120" s="2">
+        <v>0</v>
+      </c>
+      <c r="P120" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="2">
+        <v>0</v>
+      </c>
+      <c r="R120" s="2">
+        <v>4.0909090909090902E-2</v>
+      </c>
+      <c r="S120" s="2">
+        <v>0</v>
+      </c>
+      <c r="T120" s="2">
+        <v>4.0909090909090902E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A121" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B121" s="2">
+        <v>205</v>
+      </c>
+      <c r="C121" s="2">
+        <v>0</v>
+      </c>
+      <c r="D121" s="2">
+        <v>205</v>
+      </c>
+      <c r="E121" s="2">
+        <v>156</v>
+      </c>
+      <c r="F121" s="2">
+        <v>9</v>
+      </c>
+      <c r="G121" s="2">
+        <v>0</v>
+      </c>
+      <c r="H121" s="2">
+        <v>9</v>
+      </c>
+      <c r="I121" s="2">
+        <v>6</v>
+      </c>
+      <c r="J121" s="2">
+        <v>0</v>
+      </c>
+      <c r="K121" s="2">
+        <v>6</v>
+      </c>
+      <c r="L121" s="2">
+        <v>0</v>
+      </c>
+      <c r="M121" s="2">
+        <v>0</v>
+      </c>
+      <c r="N121" s="2">
+        <v>0</v>
+      </c>
+      <c r="O121" s="2">
+        <v>0</v>
+      </c>
+      <c r="P121" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="2">
+        <v>0</v>
+      </c>
+      <c r="R121" s="2">
+        <v>7.3170731707317097E-2</v>
+      </c>
+      <c r="S121" s="2">
+        <v>0</v>
+      </c>
+      <c r="T121" s="2">
+        <v>7.3170731707317097E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A122" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B122" s="2">
+        <v>222</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0</v>
+      </c>
+      <c r="D122" s="2">
+        <v>222</v>
+      </c>
+      <c r="E122" s="2">
+        <v>107</v>
+      </c>
+      <c r="F122" s="2">
+        <v>4</v>
+      </c>
+      <c r="G122" s="2">
+        <v>0</v>
+      </c>
+      <c r="H122" s="2">
+        <v>4</v>
+      </c>
+      <c r="I122" s="2">
+        <v>7</v>
+      </c>
+      <c r="J122" s="2">
+        <v>0</v>
+      </c>
+      <c r="K122" s="2">
+        <v>7</v>
+      </c>
+      <c r="L122" s="2">
+        <v>0</v>
+      </c>
+      <c r="M122" s="2">
+        <v>0</v>
+      </c>
+      <c r="N122" s="2">
+        <v>0</v>
+      </c>
+      <c r="O122" s="2">
+        <v>0</v>
+      </c>
+      <c r="P122" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="2">
+        <v>0</v>
+      </c>
+      <c r="R122" s="2">
+        <v>4.9549549549549599E-2</v>
+      </c>
+      <c r="S122" s="2">
+        <v>0</v>
+      </c>
+      <c r="T122" s="2">
+        <v>4.9549549549549599E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B123" s="2">
+        <v>127</v>
+      </c>
+      <c r="C123" s="2">
+        <v>0</v>
+      </c>
+      <c r="D123" s="2">
+        <v>127</v>
+      </c>
+      <c r="E123" s="2">
+        <v>84</v>
+      </c>
+      <c r="F123" s="2">
+        <v>1</v>
+      </c>
+      <c r="G123" s="2">
+        <v>0</v>
+      </c>
+      <c r="H123" s="2">
+        <v>1</v>
+      </c>
+      <c r="I123" s="2">
+        <v>3</v>
+      </c>
+      <c r="J123" s="2">
+        <v>0</v>
+      </c>
+      <c r="K123" s="2">
+        <v>3</v>
+      </c>
+      <c r="L123" s="2">
+        <v>0</v>
+      </c>
+      <c r="M123" s="2">
+        <v>0</v>
+      </c>
+      <c r="N123" s="2">
+        <v>0</v>
+      </c>
+      <c r="O123" s="2">
+        <v>0</v>
+      </c>
+      <c r="P123" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="2">
+        <v>0</v>
+      </c>
+      <c r="R123" s="2">
+        <v>3.1496062992125998E-2</v>
+      </c>
+      <c r="S123" s="2">
+        <v>0</v>
+      </c>
+      <c r="T123" s="2">
+        <v>3.1496062992125998E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A124" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B124" s="2">
+        <v>87</v>
+      </c>
+      <c r="C124" s="2">
+        <v>0</v>
+      </c>
+      <c r="D124" s="2">
+        <v>87</v>
+      </c>
+      <c r="E124" s="2">
+        <v>40</v>
+      </c>
+      <c r="F124" s="2">
+        <v>3</v>
+      </c>
+      <c r="G124" s="2">
+        <v>0</v>
+      </c>
+      <c r="H124" s="2">
+        <v>3</v>
+      </c>
+      <c r="I124" s="2">
+        <v>10</v>
+      </c>
+      <c r="J124" s="2">
+        <v>0</v>
+      </c>
+      <c r="K124" s="2">
+        <v>10</v>
+      </c>
+      <c r="L124" s="2">
+        <v>0</v>
+      </c>
+      <c r="M124" s="2">
+        <v>0</v>
+      </c>
+      <c r="N124" s="2">
+        <v>0</v>
+      </c>
+      <c r="O124" s="2">
+        <v>1</v>
+      </c>
+      <c r="P124" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="2">
+        <v>1</v>
+      </c>
+      <c r="R124" s="2">
+        <v>0.160919540229885</v>
+      </c>
+      <c r="S124" s="2">
+        <v>0</v>
+      </c>
+      <c r="T124" s="2">
+        <v>0.160919540229885</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B125" s="2">
+        <v>83</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0</v>
+      </c>
+      <c r="D125" s="2">
+        <v>83</v>
+      </c>
+      <c r="E125" s="2">
+        <v>49</v>
+      </c>
+      <c r="F125" s="2">
+        <v>1</v>
+      </c>
+      <c r="G125" s="2">
+        <v>0</v>
+      </c>
+      <c r="H125" s="2">
+        <v>1</v>
+      </c>
+      <c r="I125" s="2">
+        <v>1</v>
+      </c>
+      <c r="J125" s="2">
+        <v>0</v>
+      </c>
+      <c r="K125" s="2">
+        <v>1</v>
+      </c>
+      <c r="L125" s="2">
+        <v>0</v>
+      </c>
+      <c r="M125" s="2">
+        <v>0</v>
+      </c>
+      <c r="N125" s="2">
+        <v>0</v>
+      </c>
+      <c r="O125" s="2">
+        <v>0</v>
+      </c>
+      <c r="P125" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="2">
+        <v>0</v>
+      </c>
+      <c r="R125" s="2">
+        <v>2.40963855421687E-2</v>
+      </c>
+      <c r="S125" s="2">
+        <v>0</v>
+      </c>
+      <c r="T125" s="2">
+        <v>2.40963855421687E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A126" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B126" s="2">
+        <v>103</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0</v>
+      </c>
+      <c r="D126" s="2">
+        <v>103</v>
+      </c>
+      <c r="E126" s="2">
+        <v>62</v>
+      </c>
+      <c r="F126" s="2">
+        <v>0</v>
+      </c>
+      <c r="G126" s="2">
+        <v>0</v>
+      </c>
+      <c r="H126" s="2">
+        <v>0</v>
+      </c>
+      <c r="I126" s="2">
+        <v>4</v>
+      </c>
+      <c r="J126" s="2">
+        <v>0</v>
+      </c>
+      <c r="K126" s="2">
+        <v>4</v>
+      </c>
+      <c r="L126" s="2">
+        <v>0</v>
+      </c>
+      <c r="M126" s="2">
+        <v>0</v>
+      </c>
+      <c r="N126" s="2">
+        <v>0</v>
+      </c>
+      <c r="O126" s="2">
+        <v>0</v>
+      </c>
+      <c r="P126" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="2">
+        <v>0</v>
+      </c>
+      <c r="R126" s="2">
+        <v>3.8834951456310697E-2</v>
+      </c>
+      <c r="S126" s="2">
+        <v>0</v>
+      </c>
+      <c r="T126" s="2">
+        <v>3.8834951456310697E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A127" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B127" s="2">
+        <v>144</v>
+      </c>
+      <c r="C127" s="2">
+        <v>0</v>
+      </c>
+      <c r="D127" s="2">
+        <v>144</v>
+      </c>
+      <c r="E127" s="2">
+        <v>81</v>
+      </c>
+      <c r="F127" s="2">
+        <v>1</v>
+      </c>
+      <c r="G127" s="2">
+        <v>0</v>
+      </c>
+      <c r="H127" s="2">
+        <v>1</v>
+      </c>
+      <c r="I127" s="2">
+        <v>4</v>
+      </c>
+      <c r="J127" s="2">
+        <v>0</v>
+      </c>
+      <c r="K127" s="2">
+        <v>4</v>
+      </c>
+      <c r="L127" s="2">
+        <v>0</v>
+      </c>
+      <c r="M127" s="2">
+        <v>0</v>
+      </c>
+      <c r="N127" s="2">
+        <v>0</v>
+      </c>
+      <c r="O127" s="2">
+        <v>0</v>
+      </c>
+      <c r="P127" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="2">
+        <v>0</v>
+      </c>
+      <c r="R127" s="2">
+        <v>3.4722222222222203E-2</v>
+      </c>
+      <c r="S127" s="2">
+        <v>0</v>
+      </c>
+      <c r="T127" s="2">
+        <v>3.4722222222222203E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B128" s="2">
+        <v>239</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0</v>
+      </c>
+      <c r="D128" s="2">
+        <v>239</v>
+      </c>
+      <c r="E128" s="2">
+        <v>127</v>
+      </c>
+      <c r="F128" s="2">
+        <v>5</v>
+      </c>
+      <c r="G128" s="2">
+        <v>0</v>
+      </c>
+      <c r="H128" s="2">
+        <v>5</v>
+      </c>
+      <c r="I128" s="2">
+        <v>13</v>
+      </c>
+      <c r="J128" s="2">
+        <v>0</v>
+      </c>
+      <c r="K128" s="2">
+        <v>13</v>
+      </c>
+      <c r="L128" s="2">
+        <v>2</v>
+      </c>
+      <c r="M128" s="2">
+        <v>0</v>
+      </c>
+      <c r="N128" s="2">
+        <v>2</v>
+      </c>
+      <c r="O128" s="2">
+        <v>0</v>
+      </c>
+      <c r="P128" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="2">
+        <v>0</v>
+      </c>
+      <c r="R128" s="2">
+        <v>8.3682008368200805E-2</v>
+      </c>
+      <c r="S128" s="2">
+        <v>0</v>
+      </c>
+      <c r="T128" s="2">
+        <v>8.3682008368200805E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A129" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B129" s="2">
+        <v>188</v>
+      </c>
+      <c r="C129" s="2">
+        <v>0</v>
+      </c>
+      <c r="D129" s="2">
+        <v>188</v>
+      </c>
+      <c r="E129" s="2">
+        <v>96</v>
+      </c>
+      <c r="F129" s="2">
+        <v>2</v>
+      </c>
+      <c r="G129" s="2">
+        <v>0</v>
+      </c>
+      <c r="H129" s="2">
+        <v>2</v>
+      </c>
+      <c r="I129" s="2">
+        <v>7</v>
+      </c>
+      <c r="J129" s="2">
+        <v>0</v>
+      </c>
+      <c r="K129" s="2">
+        <v>7</v>
+      </c>
+      <c r="L129" s="2">
+        <v>0</v>
+      </c>
+      <c r="M129" s="2">
+        <v>0</v>
+      </c>
+      <c r="N129" s="2">
+        <v>0</v>
+      </c>
+      <c r="O129" s="2">
+        <v>1</v>
+      </c>
+      <c r="P129" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="2">
+        <v>1</v>
+      </c>
+      <c r="R129" s="2">
+        <v>5.31914893617021E-2</v>
+      </c>
+      <c r="S129" s="2">
+        <v>0</v>
+      </c>
+      <c r="T129" s="2">
+        <v>5.31914893617021E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A130" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B130" s="2">
+        <v>100</v>
+      </c>
+      <c r="C130" s="2">
+        <v>0</v>
+      </c>
+      <c r="D130" s="2">
+        <v>100</v>
+      </c>
+      <c r="E130" s="2">
+        <v>47</v>
+      </c>
+      <c r="F130" s="2">
+        <v>2</v>
+      </c>
+      <c r="G130" s="2">
+        <v>0</v>
+      </c>
+      <c r="H130" s="2">
+        <v>2</v>
+      </c>
+      <c r="I130" s="2">
+        <v>4</v>
+      </c>
+      <c r="J130" s="2">
+        <v>0</v>
+      </c>
+      <c r="K130" s="2">
+        <v>4</v>
+      </c>
+      <c r="L130" s="2">
+        <v>0</v>
+      </c>
+      <c r="M130" s="2">
+        <v>0</v>
+      </c>
+      <c r="N130" s="2">
+        <v>0</v>
+      </c>
+      <c r="O130" s="2">
+        <v>1</v>
+      </c>
+      <c r="P130" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="2">
+        <v>1</v>
+      </c>
+      <c r="R130" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S130" s="2">
+        <v>0</v>
+      </c>
+      <c r="T130" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A131" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B131" s="2">
+        <v>33</v>
+      </c>
+      <c r="C131" s="2">
+        <v>0</v>
+      </c>
+      <c r="D131" s="2">
+        <v>33</v>
+      </c>
+      <c r="E131" s="2">
+        <v>23</v>
+      </c>
+      <c r="F131" s="2">
+        <v>0</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0</v>
+      </c>
+      <c r="H131" s="2">
+        <v>0</v>
+      </c>
+      <c r="I131" s="2">
+        <v>1</v>
+      </c>
+      <c r="J131" s="2">
+        <v>0</v>
+      </c>
+      <c r="K131" s="2">
+        <v>1</v>
+      </c>
+      <c r="L131" s="2">
+        <v>0</v>
+      </c>
+      <c r="M131" s="2">
+        <v>0</v>
+      </c>
+      <c r="N131" s="2">
+        <v>0</v>
+      </c>
+      <c r="O131" s="2">
+        <v>0</v>
+      </c>
+      <c r="P131" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="2">
+        <v>0</v>
+      </c>
+      <c r="R131" s="2">
+        <v>3.03030303030303E-2</v>
+      </c>
+      <c r="S131" s="2">
+        <v>0</v>
+      </c>
+      <c r="T131" s="2">
+        <v>3.03030303030303E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A132" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B132" s="2">
+        <v>50</v>
+      </c>
+      <c r="C132" s="2">
+        <v>0</v>
+      </c>
+      <c r="D132" s="2">
+        <v>50</v>
+      </c>
+      <c r="E132" s="2">
+        <v>21</v>
+      </c>
+      <c r="F132" s="2">
+        <v>1</v>
+      </c>
+      <c r="G132" s="2">
+        <v>0</v>
+      </c>
+      <c r="H132" s="2">
+        <v>1</v>
+      </c>
+      <c r="I132" s="2">
+        <v>2</v>
+      </c>
+      <c r="J132" s="2">
+        <v>0</v>
+      </c>
+      <c r="K132" s="2">
+        <v>2</v>
+      </c>
+      <c r="L132" s="2">
+        <v>0</v>
+      </c>
+      <c r="M132" s="2">
+        <v>0</v>
+      </c>
+      <c r="N132" s="2">
+        <v>0</v>
+      </c>
+      <c r="O132" s="2">
+        <v>1</v>
+      </c>
+      <c r="P132" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="2">
+        <v>1</v>
+      </c>
+      <c r="R132" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="S132" s="2">
+        <v>0</v>
+      </c>
+      <c r="T132" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A133" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B133" s="2">
+        <v>90</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0</v>
+      </c>
+      <c r="D133" s="2">
+        <v>90</v>
+      </c>
+      <c r="E133" s="2">
+        <v>33</v>
+      </c>
+      <c r="F133" s="2">
+        <v>3</v>
+      </c>
+      <c r="G133" s="2">
+        <v>0</v>
+      </c>
+      <c r="H133" s="2">
+        <v>3</v>
+      </c>
+      <c r="I133" s="2">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2">
+        <v>0</v>
+      </c>
+      <c r="K133" s="2">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2">
+        <v>0</v>
+      </c>
+      <c r="M133" s="2">
+        <v>0</v>
+      </c>
+      <c r="N133" s="2">
+        <v>0</v>
+      </c>
+      <c r="O133" s="2">
+        <v>0</v>
+      </c>
+      <c r="P133" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="2">
+        <v>0</v>
+      </c>
+      <c r="R133" s="2">
+        <v>3.3333333333333298E-2</v>
+      </c>
+      <c r="S133" s="2">
+        <v>0</v>
+      </c>
+      <c r="T133" s="2">
+        <v>3.3333333333333298E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A134" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B134" s="2">
+        <v>100</v>
+      </c>
+      <c r="C134" s="2">
+        <v>0</v>
+      </c>
+      <c r="D134" s="2">
+        <v>100</v>
+      </c>
+      <c r="E134" s="2">
+        <v>52</v>
+      </c>
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
+      <c r="G134" s="2">
+        <v>0</v>
+      </c>
+      <c r="H134" s="2">
+        <v>0</v>
+      </c>
+      <c r="I134" s="2">
+        <v>3</v>
+      </c>
+      <c r="J134" s="2">
+        <v>0</v>
+      </c>
+      <c r="K134" s="2">
+        <v>3</v>
+      </c>
+      <c r="L134" s="2">
+        <v>0</v>
+      </c>
+      <c r="M134" s="2">
+        <v>0</v>
+      </c>
+      <c r="N134" s="2">
+        <v>0</v>
+      </c>
+      <c r="O134" s="2">
+        <v>1</v>
+      </c>
+      <c r="P134" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="2">
+        <v>1</v>
+      </c>
+      <c r="R134" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="S134" s="2">
+        <v>0</v>
+      </c>
+      <c r="T134" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A135" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B135" s="2">
+        <v>319</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0</v>
+      </c>
+      <c r="D135" s="2">
+        <v>319</v>
+      </c>
+      <c r="E135" s="2">
+        <v>200</v>
+      </c>
+      <c r="F135" s="2">
+        <v>18</v>
+      </c>
+      <c r="G135" s="2">
+        <v>0</v>
+      </c>
+      <c r="H135" s="2">
+        <v>18</v>
+      </c>
+      <c r="I135" s="2">
+        <v>14</v>
+      </c>
+      <c r="J135" s="2">
+        <v>0</v>
+      </c>
+      <c r="K135" s="2">
+        <v>14</v>
+      </c>
+      <c r="L135" s="2">
+        <v>1</v>
+      </c>
+      <c r="M135" s="2">
+        <v>0</v>
+      </c>
+      <c r="N135" s="2">
+        <v>1</v>
+      </c>
+      <c r="O135" s="2">
+        <v>1</v>
+      </c>
+      <c r="P135" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="2">
+        <v>1</v>
+      </c>
+      <c r="R135" s="2">
+        <v>0.10658307210031299</v>
+      </c>
+      <c r="S135" s="2">
+        <v>0</v>
+      </c>
+      <c r="T135" s="2">
+        <v>0.10658307210031299</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A136" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B136" s="2">
+        <v>952</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0</v>
+      </c>
+      <c r="D136" s="2">
+        <v>952</v>
+      </c>
+      <c r="E136" s="2">
+        <v>659</v>
+      </c>
+      <c r="F136" s="2">
+        <v>30</v>
+      </c>
+      <c r="G136" s="2">
+        <v>0</v>
+      </c>
+      <c r="H136" s="2">
+        <v>30</v>
+      </c>
+      <c r="I136" s="2">
+        <v>31</v>
+      </c>
+      <c r="J136" s="2">
+        <v>0</v>
+      </c>
+      <c r="K136" s="2">
+        <v>31</v>
+      </c>
+      <c r="L136" s="2">
+        <v>4</v>
+      </c>
+      <c r="M136" s="2">
+        <v>0</v>
+      </c>
+      <c r="N136" s="2">
+        <v>4</v>
+      </c>
+      <c r="O136" s="2">
+        <v>2</v>
+      </c>
+      <c r="P136" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="2">
+        <v>2</v>
+      </c>
+      <c r="R136" s="2">
+        <v>7.0378151260504201E-2</v>
+      </c>
+      <c r="S136" s="2">
+        <v>0</v>
+      </c>
+      <c r="T136" s="2">
+        <v>7.0378151260504201E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A137" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B137" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0</v>
+      </c>
+      <c r="D137" s="2">
+        <v>1200</v>
+      </c>
+      <c r="E137" s="2">
+        <v>823</v>
+      </c>
+      <c r="F137" s="2">
+        <v>29</v>
+      </c>
+      <c r="G137" s="2">
+        <v>0</v>
+      </c>
+      <c r="H137" s="2">
+        <v>29</v>
+      </c>
+      <c r="I137" s="2">
+        <v>28</v>
+      </c>
+      <c r="J137" s="2">
+        <v>0</v>
+      </c>
+      <c r="K137" s="2">
+        <v>28</v>
+      </c>
+      <c r="L137" s="2">
+        <v>2</v>
+      </c>
+      <c r="M137" s="2">
+        <v>0</v>
+      </c>
+      <c r="N137" s="2">
+        <v>2</v>
+      </c>
+      <c r="O137" s="2">
+        <v>0</v>
+      </c>
+      <c r="P137" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="2">
+        <v>0</v>
+      </c>
+      <c r="R137" s="2">
+        <v>4.9166666666666699E-2</v>
+      </c>
+      <c r="S137" s="2">
+        <v>0</v>
+      </c>
+      <c r="T137" s="2">
+        <v>4.9166666666666699E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A138" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B138" s="2">
+        <v>1261</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0</v>
+      </c>
+      <c r="D138" s="2">
+        <v>1261</v>
+      </c>
+      <c r="E138" s="2">
+        <v>886</v>
+      </c>
+      <c r="F138" s="2">
+        <v>29</v>
+      </c>
+      <c r="G138" s="2">
+        <v>0</v>
+      </c>
+      <c r="H138" s="2">
+        <v>29</v>
+      </c>
+      <c r="I138" s="2">
+        <v>35</v>
+      </c>
+      <c r="J138" s="2">
+        <v>0</v>
+      </c>
+      <c r="K138" s="2">
+        <v>35</v>
+      </c>
+      <c r="L138" s="2">
+        <v>1</v>
+      </c>
+      <c r="M138" s="2">
+        <v>0</v>
+      </c>
+      <c r="N138" s="2">
+        <v>1</v>
+      </c>
+      <c r="O138" s="2">
+        <v>1</v>
+      </c>
+      <c r="P138" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="2">
+        <v>1</v>
+      </c>
+      <c r="R138" s="2">
+        <v>5.2339413164155399E-2</v>
+      </c>
+      <c r="S138" s="2">
+        <v>0</v>
+      </c>
+      <c r="T138" s="2">
+        <v>5.2339413164155399E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A139" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B139" s="2">
+        <v>819</v>
+      </c>
+      <c r="C139" s="2">
+        <v>0</v>
+      </c>
+      <c r="D139" s="2">
+        <v>819</v>
+      </c>
+      <c r="E139" s="2">
+        <v>600</v>
+      </c>
+      <c r="F139" s="2">
+        <v>11</v>
+      </c>
+      <c r="G139" s="2">
+        <v>0</v>
+      </c>
+      <c r="H139" s="2">
+        <v>11</v>
+      </c>
+      <c r="I139" s="2">
+        <v>19</v>
+      </c>
+      <c r="J139" s="2">
+        <v>0</v>
+      </c>
+      <c r="K139" s="2">
+        <v>19</v>
+      </c>
+      <c r="L139" s="2">
+        <v>1</v>
+      </c>
+      <c r="M139" s="2">
+        <v>0</v>
+      </c>
+      <c r="N139" s="2">
+        <v>1</v>
+      </c>
+      <c r="O139" s="2">
+        <v>0</v>
+      </c>
+      <c r="P139" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="2">
+        <v>0</v>
+      </c>
+      <c r="R139" s="2">
+        <v>3.78510378510378E-2</v>
+      </c>
+      <c r="S139" s="2">
+        <v>0</v>
+      </c>
+      <c r="T139" s="2">
+        <v>3.78510378510378E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A140" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B140" s="2">
+        <v>790</v>
+      </c>
+      <c r="C140" s="2">
+        <v>0</v>
+      </c>
+      <c r="D140" s="2">
+        <v>790</v>
+      </c>
+      <c r="E140" s="2">
+        <v>616</v>
+      </c>
+      <c r="F140" s="2">
+        <v>12</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0</v>
+      </c>
+      <c r="H140" s="2">
+        <v>12</v>
+      </c>
+      <c r="I140" s="2">
+        <v>14</v>
+      </c>
+      <c r="J140" s="2">
+        <v>0</v>
+      </c>
+      <c r="K140" s="2">
+        <v>14</v>
+      </c>
+      <c r="L140" s="2">
+        <v>1</v>
+      </c>
+      <c r="M140" s="2">
+        <v>0</v>
+      </c>
+      <c r="N140" s="2">
+        <v>1</v>
+      </c>
+      <c r="O140" s="2">
+        <v>1</v>
+      </c>
+      <c r="P140" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="2">
+        <v>1</v>
+      </c>
+      <c r="R140" s="2">
+        <v>3.5443037974683497E-2</v>
+      </c>
+      <c r="S140" s="2">
+        <v>0</v>
+      </c>
+      <c r="T140" s="2">
+        <v>3.5443037974683497E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A141" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B141" s="2">
+        <v>679</v>
+      </c>
+      <c r="C141" s="2">
+        <v>0</v>
+      </c>
+      <c r="D141" s="2">
+        <v>679</v>
+      </c>
+      <c r="E141" s="2">
+        <v>495</v>
+      </c>
+      <c r="F141" s="2">
+        <v>26</v>
+      </c>
+      <c r="G141" s="2">
+        <v>0</v>
+      </c>
+      <c r="H141" s="2">
+        <v>26</v>
+      </c>
+      <c r="I141" s="2">
+        <v>19</v>
+      </c>
+      <c r="J141" s="2">
+        <v>0</v>
+      </c>
+      <c r="K141" s="2">
+        <v>19</v>
+      </c>
+      <c r="L141" s="2">
+        <v>2</v>
+      </c>
+      <c r="M141" s="2">
+        <v>0</v>
+      </c>
+      <c r="N141" s="2">
+        <v>2</v>
+      </c>
+      <c r="O141" s="2">
+        <v>1</v>
+      </c>
+      <c r="P141" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="2">
+        <v>1</v>
+      </c>
+      <c r="R141" s="2">
+        <v>7.0692194403534594E-2</v>
+      </c>
+      <c r="S141" s="2">
+        <v>0</v>
+      </c>
+      <c r="T141" s="2">
+        <v>7.0692194403534594E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A142" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B142" s="2">
+        <v>599</v>
+      </c>
+      <c r="C142" s="2">
+        <v>0</v>
+      </c>
+      <c r="D142" s="2">
+        <v>599</v>
+      </c>
+      <c r="E142" s="2">
+        <v>443</v>
+      </c>
+      <c r="F142" s="2">
+        <v>13</v>
+      </c>
+      <c r="G142" s="2">
+        <v>0</v>
+      </c>
+      <c r="H142" s="2">
+        <v>13</v>
+      </c>
+      <c r="I142" s="2">
+        <v>12</v>
+      </c>
+      <c r="J142" s="2">
+        <v>0</v>
+      </c>
+      <c r="K142" s="2">
+        <v>12</v>
+      </c>
+      <c r="L142" s="2">
+        <v>0</v>
+      </c>
+      <c r="M142" s="2">
+        <v>0</v>
+      </c>
+      <c r="N142" s="2">
+        <v>0</v>
+      </c>
+      <c r="O142" s="2">
+        <v>0</v>
+      </c>
+      <c r="P142" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="2">
+        <v>0</v>
+      </c>
+      <c r="R142" s="2">
+        <v>4.1736227045075097E-2</v>
+      </c>
+      <c r="S142" s="2">
+        <v>0</v>
+      </c>
+      <c r="T142" s="2">
+        <v>4.1736227045075097E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A143" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B143" s="2">
+        <v>486</v>
+      </c>
+      <c r="C143" s="2">
+        <v>0</v>
+      </c>
+      <c r="D143" s="2">
+        <v>486</v>
+      </c>
+      <c r="E143" s="2">
+        <v>346</v>
+      </c>
+      <c r="F143" s="2">
+        <v>12</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0</v>
+      </c>
+      <c r="H143" s="2">
+        <v>12</v>
+      </c>
+      <c r="I143" s="2">
+        <v>6</v>
+      </c>
+      <c r="J143" s="2">
+        <v>0</v>
+      </c>
+      <c r="K143" s="2">
+        <v>6</v>
+      </c>
+      <c r="L143" s="2">
+        <v>0</v>
+      </c>
+      <c r="M143" s="2">
+        <v>0</v>
+      </c>
+      <c r="N143" s="2">
+        <v>0</v>
+      </c>
+      <c r="O143" s="2">
+        <v>0</v>
+      </c>
+      <c r="P143" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="2">
+        <v>0</v>
+      </c>
+      <c r="R143" s="2">
+        <v>3.7037037037037E-2</v>
+      </c>
+      <c r="S143" s="2">
+        <v>0</v>
+      </c>
+      <c r="T143" s="2">
+        <v>3.7037037037037E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A144" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B144" s="2">
+        <v>387</v>
+      </c>
+      <c r="C144" s="2">
+        <v>0</v>
+      </c>
+      <c r="D144" s="2">
+        <v>387</v>
+      </c>
+      <c r="E144" s="2">
+        <v>291</v>
+      </c>
+      <c r="F144" s="2">
+        <v>1</v>
+      </c>
+      <c r="G144" s="2">
+        <v>0</v>
+      </c>
+      <c r="H144" s="2">
+        <v>1</v>
+      </c>
+      <c r="I144" s="2">
+        <v>7</v>
+      </c>
+      <c r="J144" s="2">
+        <v>0</v>
+      </c>
+      <c r="K144" s="2">
+        <v>7</v>
+      </c>
+      <c r="L144" s="2">
+        <v>0</v>
+      </c>
+      <c r="M144" s="2">
+        <v>0</v>
+      </c>
+      <c r="N144" s="2">
+        <v>0</v>
+      </c>
+      <c r="O144" s="2">
+        <v>0</v>
+      </c>
+      <c r="P144" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="2">
+        <v>0</v>
+      </c>
+      <c r="R144" s="2">
+        <v>2.0671834625322998E-2</v>
+      </c>
+      <c r="S144" s="2">
+        <v>0</v>
+      </c>
+      <c r="T144" s="2">
+        <v>2.0671834625322998E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A145" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B145" s="2">
+        <v>230</v>
+      </c>
+      <c r="C145" s="2">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2">
+        <v>230</v>
+      </c>
+      <c r="E145" s="2">
+        <v>186</v>
+      </c>
+      <c r="F145" s="2">
+        <v>1</v>
+      </c>
+      <c r="G145" s="2">
+        <v>0</v>
+      </c>
+      <c r="H145" s="2">
+        <v>1</v>
+      </c>
+      <c r="I145" s="2">
+        <v>1</v>
+      </c>
+      <c r="J145" s="2">
+        <v>0</v>
+      </c>
+      <c r="K145" s="2">
+        <v>1</v>
+      </c>
+      <c r="L145" s="2">
+        <v>0</v>
+      </c>
+      <c r="M145" s="2">
+        <v>0</v>
+      </c>
+      <c r="N145" s="2">
+        <v>0</v>
+      </c>
+      <c r="O145" s="2">
+        <v>0</v>
+      </c>
+      <c r="P145" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="2">
+        <v>0</v>
+      </c>
+      <c r="R145" s="2">
+        <v>8.6956521739130401E-3</v>
+      </c>
+      <c r="S145" s="2">
+        <v>0</v>
+      </c>
+      <c r="T145" s="2">
+        <v>8.6956521739130401E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A146" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B146" s="2">
+        <v>175</v>
+      </c>
+      <c r="C146" s="2">
+        <v>0</v>
+      </c>
+      <c r="D146" s="2">
+        <v>175</v>
+      </c>
+      <c r="E146" s="2">
+        <v>131</v>
+      </c>
+      <c r="F146" s="2">
+        <v>3</v>
+      </c>
+      <c r="G146" s="2">
+        <v>0</v>
+      </c>
+      <c r="H146" s="2">
+        <v>3</v>
+      </c>
+      <c r="I146" s="2">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2">
+        <v>0</v>
+      </c>
+      <c r="K146" s="2">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2">
+        <v>0</v>
+      </c>
+      <c r="M146" s="2">
+        <v>0</v>
+      </c>
+      <c r="N146" s="2">
+        <v>0</v>
+      </c>
+      <c r="O146" s="2">
+        <v>0</v>
+      </c>
+      <c r="P146" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="2">
+        <v>0</v>
+      </c>
+      <c r="R146" s="2">
+        <v>1.7142857142857099E-2</v>
+      </c>
+      <c r="S146" s="2">
+        <v>0</v>
+      </c>
+      <c r="T146" s="2">
+        <v>1.7142857142857099E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A147" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B147" s="2">
+        <v>164</v>
+      </c>
+      <c r="C147" s="2">
+        <v>0</v>
+      </c>
+      <c r="D147" s="2">
+        <v>164</v>
+      </c>
+      <c r="E147" s="2">
+        <v>135</v>
+      </c>
+      <c r="F147" s="2">
+        <v>1</v>
+      </c>
+      <c r="G147" s="2">
+        <v>0</v>
+      </c>
+      <c r="H147" s="2">
+        <v>1</v>
+      </c>
+      <c r="I147" s="2">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2">
+        <v>0</v>
+      </c>
+      <c r="K147" s="2">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2">
+        <v>0</v>
+      </c>
+      <c r="M147" s="2">
+        <v>0</v>
+      </c>
+      <c r="N147" s="2">
+        <v>0</v>
+      </c>
+      <c r="O147" s="2">
+        <v>1</v>
+      </c>
+      <c r="P147" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="2">
+        <v>1</v>
+      </c>
+      <c r="R147" s="2">
+        <v>1.21951219512195E-2</v>
+      </c>
+      <c r="S147" s="2">
+        <v>0</v>
+      </c>
+      <c r="T147" s="2">
+        <v>1.21951219512195E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A148" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B148" s="2">
+        <v>134</v>
+      </c>
+      <c r="C148" s="2">
+        <v>0</v>
+      </c>
+      <c r="D148" s="2">
+        <v>134</v>
+      </c>
+      <c r="E148" s="2">
+        <v>103</v>
+      </c>
+      <c r="F148" s="2">
+        <v>2</v>
+      </c>
+      <c r="G148" s="2">
+        <v>0</v>
+      </c>
+      <c r="H148" s="2">
+        <v>2</v>
+      </c>
+      <c r="I148" s="2">
+        <v>2</v>
+      </c>
+      <c r="J148" s="2">
+        <v>0</v>
+      </c>
+      <c r="K148" s="2">
+        <v>2</v>
+      </c>
+      <c r="L148" s="2">
+        <v>0</v>
+      </c>
+      <c r="M148" s="2">
+        <v>0</v>
+      </c>
+      <c r="N148" s="2">
+        <v>0</v>
+      </c>
+      <c r="O148" s="2">
+        <v>0</v>
+      </c>
+      <c r="P148" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="2">
+        <v>0</v>
+      </c>
+      <c r="R148" s="2">
+        <v>2.9850746268656699E-2</v>
+      </c>
+      <c r="S148" s="2">
+        <v>0</v>
+      </c>
+      <c r="T148" s="2">
+        <v>2.9850746268656699E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A149" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B149" s="2">
+        <v>224</v>
+      </c>
+      <c r="C149" s="2">
+        <v>0</v>
+      </c>
+      <c r="D149" s="2">
+        <v>224</v>
+      </c>
+      <c r="E149" s="2">
+        <v>142</v>
+      </c>
+      <c r="F149" s="2">
+        <v>4</v>
+      </c>
+      <c r="G149" s="2">
+        <v>0</v>
+      </c>
+      <c r="H149" s="2">
+        <v>4</v>
+      </c>
+      <c r="I149" s="2">
+        <v>5</v>
+      </c>
+      <c r="J149" s="2">
+        <v>0</v>
+      </c>
+      <c r="K149" s="2">
+        <v>5</v>
+      </c>
+      <c r="L149" s="2">
+        <v>0</v>
+      </c>
+      <c r="M149" s="2">
+        <v>0</v>
+      </c>
+      <c r="N149" s="2">
+        <v>0</v>
+      </c>
+      <c r="O149" s="2">
+        <v>1</v>
+      </c>
+      <c r="P149" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="2">
+        <v>1</v>
+      </c>
+      <c r="R149" s="2">
+        <v>4.4642857142857102E-2</v>
+      </c>
+      <c r="S149" s="2">
+        <v>0</v>
+      </c>
+      <c r="T149" s="2">
+        <v>4.4642857142857102E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A150" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B150" s="2">
+        <v>282</v>
+      </c>
+      <c r="C150" s="2">
+        <v>0</v>
+      </c>
+      <c r="D150" s="2">
+        <v>282</v>
+      </c>
+      <c r="E150" s="2">
+        <v>128</v>
+      </c>
+      <c r="F150" s="2">
+        <v>5</v>
+      </c>
+      <c r="G150" s="2">
+        <v>0</v>
+      </c>
+      <c r="H150" s="2">
+        <v>5</v>
+      </c>
+      <c r="I150" s="2">
+        <v>9</v>
+      </c>
+      <c r="J150" s="2">
+        <v>0</v>
+      </c>
+      <c r="K150" s="2">
+        <v>9</v>
+      </c>
+      <c r="L150" s="2">
+        <v>1</v>
+      </c>
+      <c r="M150" s="2">
+        <v>0</v>
+      </c>
+      <c r="N150" s="2">
+        <v>1</v>
+      </c>
+      <c r="O150" s="2">
+        <v>4</v>
+      </c>
+      <c r="P150" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="2">
+        <v>4</v>
+      </c>
+      <c r="R150" s="2">
+        <v>6.7375886524822695E-2</v>
+      </c>
+      <c r="S150" s="2">
+        <v>0</v>
+      </c>
+      <c r="T150" s="2">
+        <v>6.7375886524822695E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A151" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B151" s="2">
+        <v>328</v>
+      </c>
+      <c r="C151" s="2">
+        <v>0</v>
+      </c>
+      <c r="D151" s="2">
+        <v>328</v>
+      </c>
+      <c r="E151" s="2">
+        <v>192</v>
+      </c>
+      <c r="F151" s="2">
+        <v>17</v>
+      </c>
+      <c r="G151" s="2">
+        <v>0</v>
+      </c>
+      <c r="H151" s="2">
+        <v>17</v>
+      </c>
+      <c r="I151" s="2">
+        <v>8</v>
+      </c>
+      <c r="J151" s="2">
+        <v>0</v>
+      </c>
+      <c r="K151" s="2">
+        <v>8</v>
+      </c>
+      <c r="L151" s="2">
+        <v>0</v>
+      </c>
+      <c r="M151" s="2">
+        <v>0</v>
+      </c>
+      <c r="N151" s="2">
+        <v>0</v>
+      </c>
+      <c r="O151" s="2">
+        <v>4</v>
+      </c>
+      <c r="P151" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="2">
+        <v>4</v>
+      </c>
+      <c r="R151" s="2">
+        <v>8.84146341463415E-2</v>
+      </c>
+      <c r="S151" s="2">
+        <v>0</v>
+      </c>
+      <c r="T151" s="2">
+        <v>8.84146341463415E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A152" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B152" s="2">
+        <v>204</v>
+      </c>
+      <c r="C152" s="2">
+        <v>0</v>
+      </c>
+      <c r="D152" s="2">
+        <v>204</v>
+      </c>
+      <c r="E152" s="2">
+        <v>111</v>
+      </c>
+      <c r="F152" s="2">
+        <v>6</v>
+      </c>
+      <c r="G152" s="2">
+        <v>0</v>
+      </c>
+      <c r="H152" s="2">
+        <v>6</v>
+      </c>
+      <c r="I152" s="2">
+        <v>5</v>
+      </c>
+      <c r="J152" s="2">
+        <v>0</v>
+      </c>
+      <c r="K152" s="2">
+        <v>5</v>
+      </c>
+      <c r="L152" s="2">
+        <v>0</v>
+      </c>
+      <c r="M152" s="2">
+        <v>0</v>
+      </c>
+      <c r="N152" s="2">
+        <v>0</v>
+      </c>
+      <c r="O152" s="2">
+        <v>0</v>
+      </c>
+      <c r="P152" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q152" s="2">
+        <v>0</v>
+      </c>
+      <c r="R152" s="2">
+        <v>5.3921568627450997E-2</v>
+      </c>
+      <c r="S152" s="2">
+        <v>0</v>
+      </c>
+      <c r="T152" s="2">
+        <v>5.3921568627450997E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A153" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B153" s="2">
+        <v>109</v>
+      </c>
+      <c r="C153" s="2">
+        <v>0</v>
+      </c>
+      <c r="D153" s="2">
+        <v>109</v>
+      </c>
+      <c r="E153" s="2">
+        <v>71</v>
+      </c>
+      <c r="F153" s="2">
+        <v>2</v>
+      </c>
+      <c r="G153" s="2">
+        <v>0</v>
+      </c>
+      <c r="H153" s="2">
+        <v>2</v>
+      </c>
+      <c r="I153" s="2">
+        <v>5</v>
+      </c>
+      <c r="J153" s="2">
+        <v>0</v>
+      </c>
+      <c r="K153" s="2">
+        <v>5</v>
+      </c>
+      <c r="L153" s="2">
+        <v>0</v>
+      </c>
+      <c r="M153" s="2">
+        <v>0</v>
+      </c>
+      <c r="N153" s="2">
+        <v>0</v>
+      </c>
+      <c r="O153" s="2">
+        <v>0</v>
+      </c>
+      <c r="P153" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q153" s="2">
+        <v>0</v>
+      </c>
+      <c r="R153" s="2">
+        <v>6.4220183486238494E-2</v>
+      </c>
+      <c r="S153" s="2">
+        <v>0</v>
+      </c>
+      <c r="T153" s="2">
+        <v>6.4220183486238494E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A154" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B154" s="2">
+        <v>190</v>
+      </c>
+      <c r="C154" s="2">
+        <v>0</v>
+      </c>
+      <c r="D154" s="2">
+        <v>190</v>
+      </c>
+      <c r="E154" s="2">
+        <v>130</v>
+      </c>
+      <c r="F154" s="2">
+        <v>5</v>
+      </c>
+      <c r="G154" s="2">
+        <v>0</v>
+      </c>
+      <c r="H154" s="2">
+        <v>5</v>
+      </c>
+      <c r="I154" s="2">
+        <v>5</v>
+      </c>
+      <c r="J154" s="2">
+        <v>0</v>
+      </c>
+      <c r="K154" s="2">
+        <v>5</v>
+      </c>
+      <c r="L154" s="2">
+        <v>0</v>
+      </c>
+      <c r="M154" s="2">
+        <v>0</v>
+      </c>
+      <c r="N154" s="2">
+        <v>0</v>
+      </c>
+      <c r="O154" s="2">
+        <v>0</v>
+      </c>
+      <c r="P154" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q154" s="2">
+        <v>0</v>
+      </c>
+      <c r="R154" s="2">
+        <v>5.2631578947368397E-2</v>
+      </c>
+      <c r="S154" s="2">
+        <v>0</v>
+      </c>
+      <c r="T154" s="2">
+        <v>5.2631578947368397E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A155" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B155" s="2">
+        <v>181</v>
+      </c>
+      <c r="C155" s="2">
+        <v>0</v>
+      </c>
+      <c r="D155" s="2">
+        <v>181</v>
+      </c>
+      <c r="E155" s="2">
+        <v>100</v>
+      </c>
+      <c r="F155" s="2">
+        <v>2</v>
+      </c>
+      <c r="G155" s="2">
+        <v>0</v>
+      </c>
+      <c r="H155" s="2">
+        <v>2</v>
+      </c>
+      <c r="I155" s="2">
+        <v>4</v>
+      </c>
+      <c r="J155" s="2">
+        <v>0</v>
+      </c>
+      <c r="K155" s="2">
+        <v>4</v>
+      </c>
+      <c r="L155" s="2">
+        <v>0</v>
+      </c>
+      <c r="M155" s="2">
+        <v>0</v>
+      </c>
+      <c r="N155" s="2">
+        <v>0</v>
+      </c>
+      <c r="O155" s="2">
+        <v>2</v>
+      </c>
+      <c r="P155" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q155" s="2">
+        <v>2</v>
+      </c>
+      <c r="R155" s="2">
+        <v>4.4198895027624301E-2</v>
+      </c>
+      <c r="S155" s="2">
+        <v>0</v>
+      </c>
+      <c r="T155" s="2">
+        <v>4.4198895027624301E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A156" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B156" s="2">
+        <v>161</v>
+      </c>
+      <c r="C156" s="2">
+        <v>0</v>
+      </c>
+      <c r="D156" s="2">
+        <v>161</v>
+      </c>
+      <c r="E156" s="2">
+        <v>100</v>
+      </c>
+      <c r="F156" s="2">
+        <v>7</v>
+      </c>
+      <c r="G156" s="2">
+        <v>0</v>
+      </c>
+      <c r="H156" s="2">
+        <v>7</v>
+      </c>
+      <c r="I156" s="2">
+        <v>11</v>
+      </c>
+      <c r="J156" s="2">
+        <v>0</v>
+      </c>
+      <c r="K156" s="2">
+        <v>11</v>
+      </c>
+      <c r="L156" s="2">
+        <v>0</v>
+      </c>
+      <c r="M156" s="2">
+        <v>0</v>
+      </c>
+      <c r="N156" s="2">
+        <v>0</v>
+      </c>
+      <c r="O156" s="2">
+        <v>0</v>
+      </c>
+      <c r="P156" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="2">
+        <v>0</v>
+      </c>
+      <c r="R156" s="2">
+        <v>0.111801242236025</v>
+      </c>
+      <c r="S156" s="2">
+        <v>0</v>
+      </c>
+      <c r="T156" s="2">
+        <v>0.111801242236025</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A157" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B157" s="2">
+        <v>273</v>
+      </c>
+      <c r="C157" s="2">
+        <v>0</v>
+      </c>
+      <c r="D157" s="2">
+        <v>273</v>
+      </c>
+      <c r="E157" s="2">
+        <v>122</v>
+      </c>
+      <c r="F157" s="2">
+        <v>11</v>
+      </c>
+      <c r="G157" s="2">
+        <v>0</v>
+      </c>
+      <c r="H157" s="2">
+        <v>11</v>
+      </c>
+      <c r="I157" s="2">
+        <v>4</v>
+      </c>
+      <c r="J157" s="2">
+        <v>0</v>
+      </c>
+      <c r="K157" s="2">
+        <v>4</v>
+      </c>
+      <c r="L157" s="2">
+        <v>1</v>
+      </c>
+      <c r="M157" s="2">
+        <v>0</v>
+      </c>
+      <c r="N157" s="2">
+        <v>1</v>
+      </c>
+      <c r="O157" s="2">
+        <v>0</v>
+      </c>
+      <c r="P157" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q157" s="2">
+        <v>0</v>
+      </c>
+      <c r="R157" s="2">
+        <v>5.8608058608058601E-2</v>
+      </c>
+      <c r="S157" s="2">
+        <v>0</v>
+      </c>
+      <c r="T157" s="2">
+        <v>5.8608058608058601E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B158" s="2">
+        <v>138</v>
+      </c>
+      <c r="C158" s="2">
+        <v>0</v>
+      </c>
+      <c r="D158" s="2">
+        <v>138</v>
+      </c>
+      <c r="E158" s="2">
+        <v>64</v>
+      </c>
+      <c r="F158" s="2">
+        <v>1</v>
+      </c>
+      <c r="G158" s="2">
+        <v>0</v>
+      </c>
+      <c r="H158" s="2">
+        <v>1</v>
+      </c>
+      <c r="I158" s="2">
+        <v>2</v>
+      </c>
+      <c r="J158" s="2">
+        <v>0</v>
+      </c>
+      <c r="K158" s="2">
+        <v>2</v>
+      </c>
+      <c r="L158" s="2">
+        <v>0</v>
+      </c>
+      <c r="M158" s="2">
+        <v>0</v>
+      </c>
+      <c r="N158" s="2">
+        <v>0</v>
+      </c>
+      <c r="O158" s="2">
+        <v>0</v>
+      </c>
+      <c r="P158" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q158" s="2">
+        <v>0</v>
+      </c>
+      <c r="R158" s="2">
+        <v>2.1739130434782601E-2</v>
+      </c>
+      <c r="S158" s="2">
+        <v>0</v>
+      </c>
+      <c r="T158" s="2">
+        <v>2.1739130434782601E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A159" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" s="2">
+        <v>61</v>
+      </c>
+      <c r="C159" s="2">
+        <v>0</v>
+      </c>
+      <c r="D159" s="2">
+        <v>61</v>
+      </c>
+      <c r="E159" s="2">
+        <v>42</v>
+      </c>
+      <c r="F159" s="2">
+        <v>4</v>
+      </c>
+      <c r="G159" s="2">
+        <v>0</v>
+      </c>
+      <c r="H159" s="2">
+        <v>4</v>
+      </c>
+      <c r="I159" s="2">
+        <v>0</v>
+      </c>
+      <c r="J159" s="2">
+        <v>0</v>
+      </c>
+      <c r="K159" s="2">
+        <v>0</v>
+      </c>
+      <c r="L159" s="2">
+        <v>0</v>
+      </c>
+      <c r="M159" s="2">
+        <v>0</v>
+      </c>
+      <c r="N159" s="2">
+        <v>0</v>
+      </c>
+      <c r="O159" s="2">
+        <v>0</v>
+      </c>
+      <c r="P159" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="2">
+        <v>0</v>
+      </c>
+      <c r="R159" s="2">
+        <v>6.5573770491803296E-2</v>
+      </c>
+      <c r="S159" s="2">
+        <v>0</v>
+      </c>
+      <c r="T159" s="2">
+        <v>6.5573770491803296E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A160" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B160" s="2">
+        <v>49</v>
+      </c>
+      <c r="C160" s="2">
+        <v>0</v>
+      </c>
+      <c r="D160" s="2">
+        <v>49</v>
+      </c>
+      <c r="E160" s="2">
+        <v>30</v>
+      </c>
+      <c r="F160" s="2">
+        <v>2</v>
+      </c>
+      <c r="G160" s="2">
+        <v>0</v>
+      </c>
+      <c r="H160" s="2">
+        <v>2</v>
+      </c>
+      <c r="I160" s="2">
+        <v>1</v>
+      </c>
+      <c r="J160" s="2">
+        <v>0</v>
+      </c>
+      <c r="K160" s="2">
+        <v>1</v>
+      </c>
+      <c r="L160" s="2">
+        <v>0</v>
+      </c>
+      <c r="M160" s="2">
+        <v>0</v>
+      </c>
+      <c r="N160" s="2">
+        <v>0</v>
+      </c>
+      <c r="O160" s="2">
+        <v>4</v>
+      </c>
+      <c r="P160" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="2">
+        <v>4</v>
+      </c>
+      <c r="R160" s="2">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="S160" s="2">
+        <v>0</v>
+      </c>
+      <c r="T160" s="2">
+        <v>0.14285714285714299</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A161" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" s="2">
+        <v>68</v>
+      </c>
+      <c r="C161" s="2">
+        <v>0</v>
+      </c>
+      <c r="D161" s="2">
+        <v>68</v>
+      </c>
+      <c r="E161" s="2">
+        <v>48</v>
+      </c>
+      <c r="F161" s="2">
+        <v>0</v>
+      </c>
+      <c r="G161" s="2">
+        <v>0</v>
+      </c>
+      <c r="H161" s="2">
+        <v>0</v>
+      </c>
+      <c r="I161" s="2">
+        <v>3</v>
+      </c>
+      <c r="J161" s="2">
+        <v>0</v>
+      </c>
+      <c r="K161" s="2">
+        <v>3</v>
+      </c>
+      <c r="L161" s="2">
+        <v>1</v>
+      </c>
+      <c r="M161" s="2">
+        <v>0</v>
+      </c>
+      <c r="N161" s="2">
+        <v>1</v>
+      </c>
+      <c r="O161" s="2">
+        <v>0</v>
+      </c>
+      <c r="P161" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="2">
+        <v>0</v>
+      </c>
+      <c r="R161" s="2">
+        <v>5.8823529411764698E-2</v>
+      </c>
+      <c r="S161" s="2">
+        <v>0</v>
+      </c>
+      <c r="T161" s="2">
+        <v>5.8823529411764698E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A162" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B162" s="2">
+        <v>148</v>
+      </c>
+      <c r="C162" s="2">
+        <v>0</v>
+      </c>
+      <c r="D162" s="2">
+        <v>148</v>
+      </c>
+      <c r="E162" s="2">
+        <v>69</v>
+      </c>
+      <c r="F162" s="2">
+        <v>1</v>
+      </c>
+      <c r="G162" s="2">
+        <v>0</v>
+      </c>
+      <c r="H162" s="2">
+        <v>1</v>
+      </c>
+      <c r="I162" s="2">
+        <v>3</v>
+      </c>
+      <c r="J162" s="2">
+        <v>0</v>
+      </c>
+      <c r="K162" s="2">
+        <v>3</v>
+      </c>
+      <c r="L162" s="2">
+        <v>0</v>
+      </c>
+      <c r="M162" s="2">
+        <v>0</v>
+      </c>
+      <c r="N162" s="2">
+        <v>0</v>
+      </c>
+      <c r="O162" s="2">
+        <v>0</v>
+      </c>
+      <c r="P162" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="2">
+        <v>0</v>
+      </c>
+      <c r="R162" s="2">
+        <v>2.7027027027027001E-2</v>
+      </c>
+      <c r="S162" s="2">
+        <v>0</v>
+      </c>
+      <c r="T162" s="2">
+        <v>2.7027027027027001E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A163" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B163" s="2">
+        <v>111</v>
+      </c>
+      <c r="C163" s="2">
+        <v>0</v>
+      </c>
+      <c r="D163" s="2">
+        <v>111</v>
+      </c>
+      <c r="E163" s="2">
+        <v>62</v>
+      </c>
+      <c r="F163" s="2">
+        <v>0</v>
+      </c>
+      <c r="G163" s="2">
+        <v>0</v>
+      </c>
+      <c r="H163" s="2">
+        <v>0</v>
+      </c>
+      <c r="I163" s="2">
+        <v>1</v>
+      </c>
+      <c r="J163" s="2">
+        <v>0</v>
+      </c>
+      <c r="K163" s="2">
+        <v>1</v>
+      </c>
+      <c r="L163" s="2">
+        <v>0</v>
+      </c>
+      <c r="M163" s="2">
+        <v>0</v>
+      </c>
+      <c r="N163" s="2">
+        <v>0</v>
+      </c>
+      <c r="O163" s="2">
+        <v>0</v>
+      </c>
+      <c r="P163" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="2">
+        <v>0</v>
+      </c>
+      <c r="R163" s="2">
+        <v>9.0090090090090107E-3</v>
+      </c>
+      <c r="S163" s="2">
+        <v>0</v>
+      </c>
+      <c r="T163" s="2">
+        <v>9.0090090090090107E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A164" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B164" s="2">
+        <v>79</v>
+      </c>
+      <c r="C164" s="2">
+        <v>0</v>
+      </c>
+      <c r="D164" s="2">
+        <v>79</v>
+      </c>
+      <c r="E164" s="2">
+        <v>48</v>
+      </c>
+      <c r="F164" s="2">
+        <v>1</v>
+      </c>
+      <c r="G164" s="2">
+        <v>0</v>
+      </c>
+      <c r="H164" s="2">
+        <v>1</v>
+      </c>
+      <c r="I164" s="2">
+        <v>1</v>
+      </c>
+      <c r="J164" s="2">
+        <v>0</v>
+      </c>
+      <c r="K164" s="2">
+        <v>1</v>
+      </c>
+      <c r="L164" s="2">
+        <v>0</v>
+      </c>
+      <c r="M164" s="2">
+        <v>0</v>
+      </c>
+      <c r="N164" s="2">
+        <v>0</v>
+      </c>
+      <c r="O164" s="2">
+        <v>0</v>
+      </c>
+      <c r="P164" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="2">
+        <v>0</v>
+      </c>
+      <c r="R164" s="2">
+        <v>2.53164556962025E-2</v>
+      </c>
+      <c r="S164" s="2">
+        <v>0</v>
+      </c>
+      <c r="T164" s="2">
+        <v>2.53164556962025E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A165" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B165" s="2">
+        <v>23</v>
+      </c>
+      <c r="C165" s="2">
+        <v>0</v>
+      </c>
+      <c r="D165" s="2">
+        <v>23</v>
+      </c>
+      <c r="E165" s="2">
+        <v>20</v>
+      </c>
+      <c r="F165" s="2">
+        <v>0</v>
+      </c>
+      <c r="G165" s="2">
+        <v>0</v>
+      </c>
+      <c r="H165" s="2">
+        <v>0</v>
+      </c>
+      <c r="I165" s="2">
+        <v>0</v>
+      </c>
+      <c r="J165" s="2">
+        <v>0</v>
+      </c>
+      <c r="K165" s="2">
+        <v>0</v>
+      </c>
+      <c r="L165" s="2">
+        <v>0</v>
+      </c>
+      <c r="M165" s="2">
+        <v>0</v>
+      </c>
+      <c r="N165" s="2">
+        <v>0</v>
+      </c>
+      <c r="O165" s="2">
+        <v>1</v>
+      </c>
+      <c r="P165" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="2">
+        <v>1</v>
+      </c>
+      <c r="R165" s="2">
+        <v>4.3478260869565202E-2</v>
+      </c>
+      <c r="S165" s="2">
+        <v>0</v>
+      </c>
+      <c r="T165" s="2">
+        <v>4.3478260869565202E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A166" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B166" s="2">
+        <v>9</v>
+      </c>
+      <c r="C166" s="2">
+        <v>0</v>
+      </c>
+      <c r="D166" s="2">
+        <v>9</v>
+      </c>
+      <c r="E166" s="2">
+        <v>7</v>
+      </c>
+      <c r="F166" s="2">
+        <v>0</v>
+      </c>
+      <c r="G166" s="2">
+        <v>0</v>
+      </c>
+      <c r="H166" s="2">
+        <v>0</v>
+      </c>
+      <c r="I166" s="2">
+        <v>1</v>
+      </c>
+      <c r="J166" s="2">
+        <v>0</v>
+      </c>
+      <c r="K166" s="2">
+        <v>1</v>
+      </c>
+      <c r="L166" s="2">
+        <v>0</v>
+      </c>
+      <c r="M166" s="2">
+        <v>0</v>
+      </c>
+      <c r="N166" s="2">
+        <v>0</v>
+      </c>
+      <c r="O166" s="2">
+        <v>0</v>
+      </c>
+      <c r="P166" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q166" s="2">
+        <v>0</v>
+      </c>
+      <c r="R166" s="2">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="S166" s="2">
+        <v>0</v>
+      </c>
+      <c r="T166" s="2">
+        <v>0.11111111111111099</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A167" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B167" s="2">
+        <v>29</v>
+      </c>
+      <c r="C167" s="2">
+        <v>0</v>
+      </c>
+      <c r="D167" s="2">
+        <v>29</v>
+      </c>
+      <c r="E167" s="2">
+        <v>18</v>
+      </c>
+      <c r="F167" s="2">
+        <v>0</v>
+      </c>
+      <c r="G167" s="2">
+        <v>0</v>
+      </c>
+      <c r="H167" s="2">
+        <v>0</v>
+      </c>
+      <c r="I167" s="2">
+        <v>0</v>
+      </c>
+      <c r="J167" s="2">
+        <v>0</v>
+      </c>
+      <c r="K167" s="2">
+        <v>0</v>
+      </c>
+      <c r="L167" s="2">
+        <v>0</v>
+      </c>
+      <c r="M167" s="2">
+        <v>0</v>
+      </c>
+      <c r="N167" s="2">
+        <v>0</v>
+      </c>
+      <c r="O167" s="2">
+        <v>0</v>
+      </c>
+      <c r="P167" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q167" s="2">
+        <v>0</v>
+      </c>
+      <c r="R167" s="2">
+        <v>0</v>
+      </c>
+      <c r="S167" s="2">
+        <v>0</v>
+      </c>
+      <c r="T167" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A168" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B168" s="2">
+        <v>63</v>
+      </c>
+      <c r="C168" s="2">
+        <v>0</v>
+      </c>
+      <c r="D168" s="2">
+        <v>63</v>
+      </c>
+      <c r="E168" s="2">
+        <v>36</v>
+      </c>
+      <c r="F168" s="2">
+        <v>2</v>
+      </c>
+      <c r="G168" s="2">
+        <v>0</v>
+      </c>
+      <c r="H168" s="2">
+        <v>2</v>
+      </c>
+      <c r="I168" s="2">
+        <v>1</v>
+      </c>
+      <c r="J168" s="2">
+        <v>0</v>
+      </c>
+      <c r="K168" s="2">
+        <v>1</v>
+      </c>
+      <c r="L168" s="2">
+        <v>0</v>
+      </c>
+      <c r="M168" s="2">
+        <v>0</v>
+      </c>
+      <c r="N168" s="2">
+        <v>0</v>
+      </c>
+      <c r="O168" s="2">
+        <v>0</v>
+      </c>
+      <c r="P168" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q168" s="2">
+        <v>0</v>
+      </c>
+      <c r="R168" s="2">
+        <v>4.7619047619047603E-2</v>
+      </c>
+      <c r="S168" s="2">
+        <v>0</v>
+      </c>
+      <c r="T168" s="2">
+        <v>4.7619047619047603E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A169" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B169" s="2">
+        <v>70</v>
+      </c>
+      <c r="C169" s="2">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2">
+        <v>70</v>
+      </c>
+      <c r="E169" s="2">
+        <v>41</v>
+      </c>
+      <c r="F169" s="2">
+        <v>0</v>
+      </c>
+      <c r="G169" s="2">
+        <v>0</v>
+      </c>
+      <c r="H169" s="2">
+        <v>0</v>
+      </c>
+      <c r="I169" s="2">
+        <v>3</v>
+      </c>
+      <c r="J169" s="2">
+        <v>0</v>
+      </c>
+      <c r="K169" s="2">
+        <v>3</v>
+      </c>
+      <c r="L169" s="2">
+        <v>0</v>
+      </c>
+      <c r="M169" s="2">
+        <v>0</v>
+      </c>
+      <c r="N169" s="2">
+        <v>0</v>
+      </c>
+      <c r="O169" s="2">
+        <v>0</v>
+      </c>
+      <c r="P169" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q169" s="2">
+        <v>0</v>
+      </c>
+      <c r="R169" s="2">
+        <v>4.2857142857142899E-2</v>
+      </c>
+      <c r="S169" s="2">
+        <v>0</v>
+      </c>
+      <c r="T169" s="2">
+        <v>4.2857142857142899E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A170" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B170" s="2">
+        <v>79</v>
+      </c>
+      <c r="C170" s="2">
+        <v>0</v>
+      </c>
+      <c r="D170" s="2">
+        <v>79</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45</v>
+      </c>
+      <c r="F170" s="2">
+        <v>0</v>
+      </c>
+      <c r="G170" s="2">
+        <v>0</v>
+      </c>
+      <c r="H170" s="2">
+        <v>0</v>
+      </c>
+      <c r="I170" s="2">
+        <v>3</v>
+      </c>
+      <c r="J170" s="2">
+        <v>0</v>
+      </c>
+      <c r="K170" s="2">
+        <v>3</v>
+      </c>
+      <c r="L170" s="2">
+        <v>0</v>
+      </c>
+      <c r="M170" s="2">
+        <v>0</v>
+      </c>
+      <c r="N170" s="2">
+        <v>0</v>
+      </c>
+      <c r="O170" s="2">
+        <v>1</v>
+      </c>
+      <c r="P170" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q170" s="2">
+        <v>1</v>
+      </c>
+      <c r="R170" s="2">
+        <v>5.0632911392405097E-2</v>
+      </c>
+      <c r="S170" s="2">
+        <v>0</v>
+      </c>
+      <c r="T170" s="2">
+        <v>5.0632911392405097E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A171" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B171" s="2">
+        <v>111</v>
+      </c>
+      <c r="C171" s="2">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2">
+        <v>111</v>
+      </c>
+      <c r="E171" s="2">
+        <v>49</v>
+      </c>
+      <c r="F171" s="2">
+        <v>13</v>
+      </c>
+      <c r="G171" s="2">
+        <v>0</v>
+      </c>
+      <c r="H171" s="2">
+        <v>13</v>
+      </c>
+      <c r="I171" s="2">
+        <v>4</v>
+      </c>
+      <c r="J171" s="2">
+        <v>0</v>
+      </c>
+      <c r="K171" s="2">
+        <v>4</v>
+      </c>
+      <c r="L171" s="2">
+        <v>0</v>
+      </c>
+      <c r="M171" s="2">
+        <v>0</v>
+      </c>
+      <c r="N171" s="2">
+        <v>0</v>
+      </c>
+      <c r="O171" s="2">
+        <v>2</v>
+      </c>
+      <c r="P171" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q171" s="2">
+        <v>2</v>
+      </c>
+      <c r="R171" s="2">
+        <v>0.171171171171171</v>
+      </c>
+      <c r="S171" s="2">
+        <v>0</v>
+      </c>
+      <c r="T171" s="2">
+        <v>0.171171171171171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A172" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B172" s="2">
+        <v>115</v>
+      </c>
+      <c r="C172" s="2">
+        <v>0</v>
+      </c>
+      <c r="D172" s="2">
+        <v>115</v>
+      </c>
+      <c r="E172" s="2">
+        <v>57</v>
+      </c>
+      <c r="F172" s="2">
+        <v>7</v>
+      </c>
+      <c r="G172" s="2">
+        <v>0</v>
+      </c>
+      <c r="H172" s="2">
+        <v>7</v>
+      </c>
+      <c r="I172" s="2">
+        <v>3</v>
+      </c>
+      <c r="J172" s="2">
+        <v>0</v>
+      </c>
+      <c r="K172" s="2">
+        <v>3</v>
+      </c>
+      <c r="L172" s="2">
+        <v>0</v>
+      </c>
+      <c r="M172" s="2">
+        <v>0</v>
+      </c>
+      <c r="N172" s="2">
+        <v>0</v>
+      </c>
+      <c r="O172" s="2">
+        <v>1</v>
+      </c>
+      <c r="P172" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q172" s="2">
+        <v>1</v>
+      </c>
+      <c r="R172" s="2">
+        <v>9.5652173913043495E-2</v>
+      </c>
+      <c r="S172" s="2">
+        <v>0</v>
+      </c>
+      <c r="T172" s="2">
+        <v>9.5652173913043495E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A173" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B173" s="2">
+        <v>103</v>
+      </c>
+      <c r="C173" s="2">
+        <v>0</v>
+      </c>
+      <c r="D173" s="2">
+        <v>103</v>
+      </c>
+      <c r="E173" s="2">
+        <v>57</v>
+      </c>
+      <c r="F173" s="2">
+        <v>4</v>
+      </c>
+      <c r="G173" s="2">
+        <v>0</v>
+      </c>
+      <c r="H173" s="2">
+        <v>4</v>
+      </c>
+      <c r="I173" s="2">
+        <v>2</v>
+      </c>
+      <c r="J173" s="2">
+        <v>0</v>
+      </c>
+      <c r="K173" s="2">
+        <v>2</v>
+      </c>
+      <c r="L173" s="2">
+        <v>1</v>
+      </c>
+      <c r="M173" s="2">
+        <v>0</v>
+      </c>
+      <c r="N173" s="2">
+        <v>1</v>
+      </c>
+      <c r="O173" s="2">
+        <v>0</v>
+      </c>
+      <c r="P173" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q173" s="2">
+        <v>0</v>
+      </c>
+      <c r="R173" s="2">
+        <v>6.7961165048543701E-2</v>
+      </c>
+      <c r="S173" s="2">
+        <v>0</v>
+      </c>
+      <c r="T173" s="2">
+        <v>6.7961165048543701E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A174" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B174" s="2">
+        <v>71</v>
+      </c>
+      <c r="C174" s="2">
+        <v>0</v>
+      </c>
+      <c r="D174" s="2">
+        <v>71</v>
+      </c>
+      <c r="E174" s="2">
+        <v>46</v>
+      </c>
+      <c r="F174" s="2">
+        <v>4</v>
+      </c>
+      <c r="G174" s="2">
+        <v>0</v>
+      </c>
+      <c r="H174" s="2">
+        <v>4</v>
+      </c>
+      <c r="I174" s="2">
+        <v>1</v>
+      </c>
+      <c r="J174" s="2">
+        <v>0</v>
+      </c>
+      <c r="K174" s="2">
+        <v>1</v>
+      </c>
+      <c r="L174" s="2">
+        <v>0</v>
+      </c>
+      <c r="M174" s="2">
+        <v>0</v>
+      </c>
+      <c r="N174" s="2">
+        <v>0</v>
+      </c>
+      <c r="O174" s="2">
+        <v>0</v>
+      </c>
+      <c r="P174" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q174" s="2">
+        <v>0</v>
+      </c>
+      <c r="R174" s="2">
+        <v>7.0422535211267595E-2</v>
+      </c>
+      <c r="S174" s="2">
+        <v>0</v>
+      </c>
+      <c r="T174" s="2">
+        <v>7.0422535211267595E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A175" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B175" s="2">
+        <v>132</v>
+      </c>
+      <c r="C175" s="2">
+        <v>0</v>
+      </c>
+      <c r="D175" s="2">
+        <v>132</v>
+      </c>
+      <c r="E175" s="2">
+        <v>87</v>
+      </c>
+      <c r="F175" s="2">
+        <v>1</v>
+      </c>
+      <c r="G175" s="2">
+        <v>0</v>
+      </c>
+      <c r="H175" s="2">
+        <v>1</v>
+      </c>
+      <c r="I175" s="2">
+        <v>8</v>
+      </c>
+      <c r="J175" s="2">
+        <v>0</v>
+      </c>
+      <c r="K175" s="2">
+        <v>8</v>
+      </c>
+      <c r="L175" s="2">
+        <v>0</v>
+      </c>
+      <c r="M175" s="2">
+        <v>0</v>
+      </c>
+      <c r="N175" s="2">
+        <v>0</v>
+      </c>
+      <c r="O175" s="2">
+        <v>0</v>
+      </c>
+      <c r="P175" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q175" s="2">
+        <v>0</v>
+      </c>
+      <c r="R175" s="2">
+        <v>6.8181818181818205E-2</v>
+      </c>
+      <c r="S175" s="2">
+        <v>0</v>
+      </c>
+      <c r="T175" s="2">
+        <v>6.8181818181818205E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A176" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B176" s="2">
+        <v>218</v>
+      </c>
+      <c r="C176" s="2">
+        <v>0</v>
+      </c>
+      <c r="D176" s="2">
+        <v>218</v>
+      </c>
+      <c r="E176" s="2">
+        <v>140</v>
+      </c>
+      <c r="F176" s="2">
+        <v>7</v>
+      </c>
+      <c r="G176" s="2">
+        <v>0</v>
+      </c>
+      <c r="H176" s="2">
+        <v>7</v>
+      </c>
+      <c r="I176" s="2">
+        <v>7</v>
+      </c>
+      <c r="J176" s="2">
+        <v>0</v>
+      </c>
+      <c r="K176" s="2">
+        <v>7</v>
+      </c>
+      <c r="L176" s="2">
+        <v>0</v>
+      </c>
+      <c r="M176" s="2">
+        <v>0</v>
+      </c>
+      <c r="N176" s="2">
+        <v>0</v>
+      </c>
+      <c r="O176" s="2">
+        <v>1</v>
+      </c>
+      <c r="P176" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q176" s="2">
+        <v>1</v>
+      </c>
+      <c r="R176" s="2">
+        <v>6.8807339449541302E-2</v>
+      </c>
+      <c r="S176" s="2">
+        <v>0</v>
+      </c>
+      <c r="T176" s="2">
+        <v>6.8807339449541302E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/NPLF LinkedIn Q1.xlsx
+++ b/NPLF LinkedIn Q1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tasha/Desktop/NPLF-Dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/CS/NPLF/NPLF-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800F3D29-DAF6-7B43-A75F-7E211301DE8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5400708-A097-AC4D-B548-B5B8231873EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13040" yWindow="460" windowWidth="16380" windowHeight="17220" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Visitor metrics" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="250">
   <si>
     <t>Date</t>
   </si>
@@ -787,258 +787,6 @@
   </si>
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:6664178567900999682</t>
-  </si>
-  <si>
-    <t>07/01/2020</t>
-  </si>
-  <si>
-    <t>07/02/2020</t>
-  </si>
-  <si>
-    <t>07/03/2020</t>
-  </si>
-  <si>
-    <t>07/04/2020</t>
-  </si>
-  <si>
-    <t>07/05/2020</t>
-  </si>
-  <si>
-    <t>07/06/2020</t>
-  </si>
-  <si>
-    <t>07/07/2020</t>
-  </si>
-  <si>
-    <t>07/08/2020</t>
-  </si>
-  <si>
-    <t>07/09/2020</t>
-  </si>
-  <si>
-    <t>07/10/2020</t>
-  </si>
-  <si>
-    <t>07/11/2020</t>
-  </si>
-  <si>
-    <t>07/12/2020</t>
-  </si>
-  <si>
-    <t>07/13/2020</t>
-  </si>
-  <si>
-    <t>07/14/2020</t>
-  </si>
-  <si>
-    <t>07/15/2020</t>
-  </si>
-  <si>
-    <t>07/16/2020</t>
-  </si>
-  <si>
-    <t>07/17/2020</t>
-  </si>
-  <si>
-    <t>07/18/2020</t>
-  </si>
-  <si>
-    <t>07/19/2020</t>
-  </si>
-  <si>
-    <t>07/20/2020</t>
-  </si>
-  <si>
-    <t>07/21/2020</t>
-  </si>
-  <si>
-    <t>07/22/2020</t>
-  </si>
-  <si>
-    <t>07/23/2020</t>
-  </si>
-  <si>
-    <t>07/24/2020</t>
-  </si>
-  <si>
-    <t>07/25/2020</t>
-  </si>
-  <si>
-    <t>07/26/2020</t>
-  </si>
-  <si>
-    <t>07/27/2020</t>
-  </si>
-  <si>
-    <t>07/28/2020</t>
-  </si>
-  <si>
-    <t>07/29/2020</t>
-  </si>
-  <si>
-    <t>07/30/2020</t>
-  </si>
-  <si>
-    <t>07/31/2020</t>
-  </si>
-  <si>
-    <t>08/01/2020</t>
-  </si>
-  <si>
-    <t>08/02/2020</t>
-  </si>
-  <si>
-    <t>08/03/2020</t>
-  </si>
-  <si>
-    <t>08/04/2020</t>
-  </si>
-  <si>
-    <t>08/05/2020</t>
-  </si>
-  <si>
-    <t>08/06/2020</t>
-  </si>
-  <si>
-    <t>08/07/2020</t>
-  </si>
-  <si>
-    <t>08/08/2020</t>
-  </si>
-  <si>
-    <t>08/09/2020</t>
-  </si>
-  <si>
-    <t>08/10/2020</t>
-  </si>
-  <si>
-    <t>08/11/2020</t>
-  </si>
-  <si>
-    <t>08/12/2020</t>
-  </si>
-  <si>
-    <t>08/13/2020</t>
-  </si>
-  <si>
-    <t>08/14/2020</t>
-  </si>
-  <si>
-    <t>08/15/2020</t>
-  </si>
-  <si>
-    <t>08/16/2020</t>
-  </si>
-  <si>
-    <t>08/17/2020</t>
-  </si>
-  <si>
-    <t>08/18/2020</t>
-  </si>
-  <si>
-    <t>08/19/2020</t>
-  </si>
-  <si>
-    <t>08/20/2020</t>
-  </si>
-  <si>
-    <t>08/21/2020</t>
-  </si>
-  <si>
-    <t>08/22/2020</t>
-  </si>
-  <si>
-    <t>08/23/2020</t>
-  </si>
-  <si>
-    <t>08/24/2020</t>
-  </si>
-  <si>
-    <t>08/25/2020</t>
-  </si>
-  <si>
-    <t>08/26/2020</t>
-  </si>
-  <si>
-    <t>08/27/2020</t>
-  </si>
-  <si>
-    <t>08/28/2020</t>
-  </si>
-  <si>
-    <t>08/29/2020</t>
-  </si>
-  <si>
-    <t>08/30/2020</t>
-  </si>
-  <si>
-    <t>08/31/2020</t>
-  </si>
-  <si>
-    <t>09/01/2020</t>
-  </si>
-  <si>
-    <t>09/02/2020</t>
-  </si>
-  <si>
-    <t>09/03/2020</t>
-  </si>
-  <si>
-    <t>09/04/2020</t>
-  </si>
-  <si>
-    <t>09/05/2020</t>
-  </si>
-  <si>
-    <t>09/06/2020</t>
-  </si>
-  <si>
-    <t>09/07/2020</t>
-  </si>
-  <si>
-    <t>09/08/2020</t>
-  </si>
-  <si>
-    <t>09/09/2020</t>
-  </si>
-  <si>
-    <t>09/10/2020</t>
-  </si>
-  <si>
-    <t>09/11/2020</t>
-  </si>
-  <si>
-    <t>09/12/2020</t>
-  </si>
-  <si>
-    <t>09/13/2020</t>
-  </si>
-  <si>
-    <t>09/14/2020</t>
-  </si>
-  <si>
-    <t>09/15/2020</t>
-  </si>
-  <si>
-    <t>09/16/2020</t>
-  </si>
-  <si>
-    <t>09/17/2020</t>
-  </si>
-  <si>
-    <t>09/18/2020</t>
-  </si>
-  <si>
-    <t>09/19/2020</t>
-  </si>
-  <si>
-    <t>09/20/2020</t>
-  </si>
-  <si>
-    <t>09/21/2020</t>
-  </si>
-  <si>
-    <t>09/22/2020</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1086,6 +834,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9195,8 +8944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:T176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="150" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9286,8 +9035,8 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>25</v>
+      <c r="A2" s="4">
+        <v>43922</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -9348,8 +9097,8 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>26</v>
+      <c r="A3" s="4">
+        <v>43923</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -9410,8 +9159,8 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>27</v>
+      <c r="A4" s="4">
+        <v>43924</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -9472,8 +9221,8 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>28</v>
+      <c r="A5" s="4">
+        <v>43925</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -9534,8 +9283,8 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>29</v>
+      <c r="A6" s="4">
+        <v>43926</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -9596,8 +9345,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>30</v>
+      <c r="A7" s="4">
+        <v>43927</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -9658,8 +9407,8 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>31</v>
+      <c r="A8" s="4">
+        <v>43928</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -9720,8 +9469,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>32</v>
+      <c r="A9" s="4">
+        <v>43929</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9782,8 +9531,8 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>33</v>
+      <c r="A10" s="4">
+        <v>43930</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -9844,8 +9593,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>34</v>
+      <c r="A11" s="4">
+        <v>43931</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -9906,8 +9655,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>35</v>
+      <c r="A12" s="4">
+        <v>43932</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -9968,8 +9717,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>36</v>
+      <c r="A13" s="4">
+        <v>43933</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -10030,8 +9779,8 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>37</v>
+      <c r="A14" s="4">
+        <v>43934</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -10092,8 +9841,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>38</v>
+      <c r="A15" s="4">
+        <v>43935</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -10154,8 +9903,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>39</v>
+      <c r="A16" s="4">
+        <v>43936</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -10216,8 +9965,8 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>40</v>
+      <c r="A17" s="4">
+        <v>43937</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -10278,8 +10027,8 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>41</v>
+      <c r="A18" s="4">
+        <v>43938</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -10340,8 +10089,8 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>42</v>
+      <c r="A19" s="4">
+        <v>43939</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -10402,8 +10151,8 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>43</v>
+      <c r="A20" s="4">
+        <v>43940</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -10464,8 +10213,8 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>44</v>
+      <c r="A21" s="4">
+        <v>43941</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -10526,8 +10275,8 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>45</v>
+      <c r="A22" s="4">
+        <v>43942</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -10588,8 +10337,8 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>46</v>
+      <c r="A23" s="4">
+        <v>43943</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -10650,8 +10399,8 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>47</v>
+      <c r="A24" s="4">
+        <v>43944</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -10712,8 +10461,8 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>48</v>
+      <c r="A25" s="4">
+        <v>43945</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -10774,8 +10523,8 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>49</v>
+      <c r="A26" s="4">
+        <v>43946</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -10836,8 +10585,8 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>50</v>
+      <c r="A27" s="4">
+        <v>43947</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -10898,8 +10647,8 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>51</v>
+      <c r="A28" s="4">
+        <v>43948</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -10960,8 +10709,8 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>52</v>
+      <c r="A29" s="4">
+        <v>43949</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -11022,8 +10771,8 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>53</v>
+      <c r="A30" s="4">
+        <v>43950</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -11084,8 +10833,8 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>54</v>
+      <c r="A31" s="4">
+        <v>43951</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -11146,8 +10895,8 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>55</v>
+      <c r="A32" s="4">
+        <v>43952</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -11208,8 +10957,8 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>56</v>
+      <c r="A33" s="4">
+        <v>43953</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -11270,8 +11019,8 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>57</v>
+      <c r="A34" s="4">
+        <v>43954</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -11332,8 +11081,8 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>58</v>
+      <c r="A35" s="4">
+        <v>43955</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -11394,8 +11143,8 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>59</v>
+      <c r="A36" s="4">
+        <v>43956</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -11456,8 +11205,8 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>60</v>
+      <c r="A37" s="4">
+        <v>43957</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -11518,8 +11267,8 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>61</v>
+      <c r="A38" s="4">
+        <v>43958</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -11580,8 +11329,8 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>62</v>
+      <c r="A39" s="4">
+        <v>43959</v>
       </c>
       <c r="B39">
         <v>14</v>
@@ -11642,8 +11391,8 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>63</v>
+      <c r="A40" s="4">
+        <v>43960</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -11704,8 +11453,8 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>64</v>
+      <c r="A41" s="4">
+        <v>43961</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -11766,8 +11515,8 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>65</v>
+      <c r="A42" s="4">
+        <v>43962</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -11828,8 +11577,8 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>66</v>
+      <c r="A43" s="4">
+        <v>43963</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -11890,8 +11639,8 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>67</v>
+      <c r="A44" s="4">
+        <v>43964</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -11952,8 +11701,8 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>68</v>
+      <c r="A45" s="4">
+        <v>43965</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -12014,8 +11763,8 @@
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>69</v>
+      <c r="A46" s="4">
+        <v>43966</v>
       </c>
       <c r="B46">
         <v>10</v>
@@ -12076,8 +11825,8 @@
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>70</v>
+      <c r="A47" s="4">
+        <v>43967</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -12138,8 +11887,8 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>71</v>
+      <c r="A48" s="4">
+        <v>43968</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -12200,8 +11949,8 @@
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>72</v>
+      <c r="A49" s="4">
+        <v>43969</v>
       </c>
       <c r="B49">
         <v>16</v>
@@ -12262,8 +12011,8 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>73</v>
+      <c r="A50" s="4">
+        <v>43970</v>
       </c>
       <c r="B50">
         <v>47</v>
@@ -12324,8 +12073,8 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>74</v>
+      <c r="A51" s="4">
+        <v>43971</v>
       </c>
       <c r="B51">
         <v>66</v>
@@ -12386,8 +12135,8 @@
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>75</v>
+      <c r="A52" s="4">
+        <v>43972</v>
       </c>
       <c r="B52">
         <v>146</v>
@@ -12448,8 +12197,8 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>76</v>
+      <c r="A53" s="4">
+        <v>43973</v>
       </c>
       <c r="B53">
         <v>112</v>
@@ -12510,8 +12259,8 @@
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>77</v>
+      <c r="A54" s="4">
+        <v>43974</v>
       </c>
       <c r="B54">
         <v>122</v>
@@ -12572,8 +12321,8 @@
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>78</v>
+      <c r="A55" s="4">
+        <v>43975</v>
       </c>
       <c r="B55">
         <v>59</v>
@@ -12634,8 +12383,8 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>79</v>
+      <c r="A56" s="4">
+        <v>43976</v>
       </c>
       <c r="B56">
         <v>45</v>
@@ -12696,8 +12445,8 @@
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>80</v>
+      <c r="A57" s="4">
+        <v>43977</v>
       </c>
       <c r="B57">
         <v>80</v>
@@ -12758,8 +12507,8 @@
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>81</v>
+      <c r="A58" s="4">
+        <v>43978</v>
       </c>
       <c r="B58">
         <v>154</v>
@@ -12820,8 +12569,8 @@
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>82</v>
+      <c r="A59" s="4">
+        <v>43979</v>
       </c>
       <c r="B59">
         <v>152</v>
@@ -12882,8 +12631,8 @@
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>83</v>
+      <c r="A60" s="4">
+        <v>43980</v>
       </c>
       <c r="B60">
         <v>89</v>
@@ -12944,8 +12693,8 @@
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>84</v>
+      <c r="A61" s="4">
+        <v>43981</v>
       </c>
       <c r="B61">
         <v>42</v>
@@ -13006,8 +12755,8 @@
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>85</v>
+      <c r="A62" s="4">
+        <v>43982</v>
       </c>
       <c r="B62">
         <v>33</v>
@@ -13068,8 +12817,8 @@
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>86</v>
+      <c r="A63" s="4">
+        <v>43983</v>
       </c>
       <c r="B63">
         <v>38</v>
@@ -13130,8 +12879,8 @@
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>87</v>
+      <c r="A64" s="4">
+        <v>43984</v>
       </c>
       <c r="B64">
         <v>28</v>
@@ -13192,8 +12941,8 @@
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>88</v>
+      <c r="A65" s="4">
+        <v>43985</v>
       </c>
       <c r="B65">
         <v>28</v>
@@ -13254,8 +13003,8 @@
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>89</v>
+      <c r="A66" s="4">
+        <v>43986</v>
       </c>
       <c r="B66">
         <v>28</v>
@@ -13316,8 +13065,8 @@
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>90</v>
+      <c r="A67" s="4">
+        <v>43987</v>
       </c>
       <c r="B67">
         <v>22</v>
@@ -13378,8 +13127,8 @@
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>91</v>
+      <c r="A68" s="4">
+        <v>43988</v>
       </c>
       <c r="B68">
         <v>17</v>
@@ -13440,8 +13189,8 @@
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>92</v>
+      <c r="A69" s="4">
+        <v>43989</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -13502,8 +13251,8 @@
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>93</v>
+      <c r="A70" s="4">
+        <v>43990</v>
       </c>
       <c r="B70">
         <v>24</v>
@@ -13564,8 +13313,8 @@
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>94</v>
+      <c r="A71" s="4">
+        <v>43991</v>
       </c>
       <c r="B71">
         <v>16</v>
@@ -13626,8 +13375,8 @@
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>95</v>
+      <c r="A72" s="4">
+        <v>43992</v>
       </c>
       <c r="B72">
         <v>54</v>
@@ -13688,8 +13437,8 @@
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>96</v>
+      <c r="A73" s="4">
+        <v>43993</v>
       </c>
       <c r="B73">
         <v>12</v>
@@ -13750,8 +13499,8 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>97</v>
+      <c r="A74" s="4">
+        <v>43994</v>
       </c>
       <c r="B74">
         <v>115</v>
@@ -13812,8 +13561,8 @@
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>98</v>
+      <c r="A75" s="4">
+        <v>43995</v>
       </c>
       <c r="B75">
         <v>36</v>
@@ -13874,8 +13623,8 @@
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>99</v>
+      <c r="A76" s="4">
+        <v>43996</v>
       </c>
       <c r="B76">
         <v>21</v>
@@ -13936,8 +13685,8 @@
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>100</v>
+      <c r="A77" s="4">
+        <v>43997</v>
       </c>
       <c r="B77">
         <v>24</v>
@@ -13998,8 +13747,8 @@
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>101</v>
+      <c r="A78" s="4">
+        <v>43998</v>
       </c>
       <c r="B78">
         <v>17</v>
@@ -14060,8 +13809,8 @@
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>102</v>
+      <c r="A79" s="4">
+        <v>43999</v>
       </c>
       <c r="B79">
         <v>24</v>
@@ -14122,8 +13871,8 @@
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>103</v>
+      <c r="A80" s="4">
+        <v>44000</v>
       </c>
       <c r="B80">
         <v>37</v>
@@ -14184,8 +13933,8 @@
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>104</v>
+      <c r="A81" s="4">
+        <v>44001</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -14246,8 +13995,8 @@
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>105</v>
+      <c r="A82" s="4">
+        <v>44002</v>
       </c>
       <c r="B82">
         <v>27</v>
@@ -14308,8 +14057,8 @@
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>106</v>
+      <c r="A83" s="4">
+        <v>44003</v>
       </c>
       <c r="B83">
         <v>13</v>
@@ -14370,8 +14119,8 @@
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>107</v>
+      <c r="A84" s="4">
+        <v>44004</v>
       </c>
       <c r="B84">
         <v>34</v>
@@ -14432,8 +14181,8 @@
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>108</v>
+      <c r="A85" s="4">
+        <v>44005</v>
       </c>
       <c r="B85">
         <v>14</v>
@@ -14494,8 +14243,8 @@
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>109</v>
+      <c r="A86" s="4">
+        <v>44006</v>
       </c>
       <c r="B86">
         <v>23</v>
@@ -14556,8 +14305,8 @@
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>110</v>
+      <c r="A87" s="4">
+        <v>44007</v>
       </c>
       <c r="B87">
         <v>59</v>
@@ -14618,8 +14367,8 @@
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>111</v>
+      <c r="A88" s="4">
+        <v>44008</v>
       </c>
       <c r="B88">
         <v>79</v>
@@ -14680,8 +14429,8 @@
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>112</v>
+      <c r="A89" s="4">
+        <v>44009</v>
       </c>
       <c r="B89">
         <v>22</v>
@@ -14742,8 +14491,8 @@
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
-        <v>113</v>
+      <c r="A90" s="4">
+        <v>44010</v>
       </c>
       <c r="B90">
         <v>22</v>
@@ -14804,8 +14553,8 @@
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
-        <v>114</v>
+      <c r="A91" s="4">
+        <v>44011</v>
       </c>
       <c r="B91">
         <v>27</v>
@@ -14866,8 +14615,8 @@
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
-        <v>115</v>
+      <c r="A92" s="4">
+        <v>44012</v>
       </c>
       <c r="B92">
         <v>32</v>
@@ -14928,8 +14677,8 @@
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A93" s="2" t="s">
-        <v>250</v>
+      <c r="A93" s="4">
+        <v>44013</v>
       </c>
       <c r="B93" s="2">
         <v>17</v>
@@ -14990,8 +14739,8 @@
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A94" s="2" t="s">
-        <v>251</v>
+      <c r="A94" s="4">
+        <v>44014</v>
       </c>
       <c r="B94" s="2">
         <v>2475</v>
@@ -15052,8 +14801,8 @@
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A95" s="2" t="s">
-        <v>252</v>
+      <c r="A95" s="4">
+        <v>44015</v>
       </c>
       <c r="B95" s="2">
         <v>1285</v>
@@ -15114,8 +14863,8 @@
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A96" s="2" t="s">
-        <v>253</v>
+      <c r="A96" s="4">
+        <v>44016</v>
       </c>
       <c r="B96" s="2">
         <v>38</v>
@@ -15176,8 +14925,8 @@
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A97" s="2" t="s">
-        <v>254</v>
+      <c r="A97" s="4">
+        <v>44017</v>
       </c>
       <c r="B97" s="2">
         <v>59</v>
@@ -15238,8 +14987,8 @@
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A98" s="2" t="s">
-        <v>255</v>
+      <c r="A98" s="4">
+        <v>44018</v>
       </c>
       <c r="B98" s="2">
         <v>29</v>
@@ -15300,8 +15049,8 @@
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A99" s="2" t="s">
-        <v>256</v>
+      <c r="A99" s="4">
+        <v>44019</v>
       </c>
       <c r="B99" s="2">
         <v>519</v>
@@ -15362,8 +15111,8 @@
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A100" s="2" t="s">
-        <v>257</v>
+      <c r="A100" s="4">
+        <v>44020</v>
       </c>
       <c r="B100" s="2">
         <v>1096</v>
@@ -15424,8 +15173,8 @@
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A101" s="2" t="s">
-        <v>258</v>
+      <c r="A101" s="4">
+        <v>44021</v>
       </c>
       <c r="B101" s="2">
         <v>690</v>
@@ -15486,8 +15235,8 @@
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A102" s="2" t="s">
-        <v>259</v>
+      <c r="A102" s="4">
+        <v>44022</v>
       </c>
       <c r="B102" s="2">
         <v>320</v>
@@ -15548,8 +15297,8 @@
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A103" s="2" t="s">
-        <v>260</v>
+      <c r="A103" s="4">
+        <v>44023</v>
       </c>
       <c r="B103" s="2">
         <v>229</v>
@@ -15610,8 +15359,8 @@
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A104" s="2" t="s">
-        <v>261</v>
+      <c r="A104" s="4">
+        <v>44024</v>
       </c>
       <c r="B104" s="2">
         <v>294</v>
@@ -15672,8 +15421,8 @@
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A105" s="2" t="s">
-        <v>262</v>
+      <c r="A105" s="4">
+        <v>44025</v>
       </c>
       <c r="B105" s="2">
         <v>524</v>
@@ -15734,8 +15483,8 @@
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A106" s="2" t="s">
-        <v>263</v>
+      <c r="A106" s="4">
+        <v>44026</v>
       </c>
       <c r="B106" s="2">
         <v>586</v>
@@ -15796,8 +15545,8 @@
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A107" s="2" t="s">
-        <v>264</v>
+      <c r="A107" s="4">
+        <v>44027</v>
       </c>
       <c r="B107" s="2">
         <v>680</v>
@@ -15858,8 +15607,8 @@
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A108" s="2" t="s">
-        <v>265</v>
+      <c r="A108" s="4">
+        <v>44028</v>
       </c>
       <c r="B108" s="2">
         <v>769</v>
@@ -15920,8 +15669,8 @@
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A109" s="2" t="s">
-        <v>266</v>
+      <c r="A109" s="4">
+        <v>44029</v>
       </c>
       <c r="B109" s="2">
         <v>913</v>
@@ -15982,8 +15731,8 @@
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A110" s="2" t="s">
-        <v>267</v>
+      <c r="A110" s="4">
+        <v>44030</v>
       </c>
       <c r="B110" s="2">
         <v>826</v>
@@ -16044,8 +15793,8 @@
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A111" s="2" t="s">
-        <v>268</v>
+      <c r="A111" s="4">
+        <v>44031</v>
       </c>
       <c r="B111" s="2">
         <v>582</v>
@@ -16106,8 +15855,8 @@
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A112" s="2" t="s">
-        <v>269</v>
+      <c r="A112" s="4">
+        <v>44032</v>
       </c>
       <c r="B112" s="2">
         <v>792</v>
@@ -16168,8 +15917,8 @@
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A113" s="2" t="s">
-        <v>270</v>
+      <c r="A113" s="4">
+        <v>44033</v>
       </c>
       <c r="B113" s="2">
         <v>812</v>
@@ -16230,8 +15979,8 @@
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A114" s="2" t="s">
-        <v>271</v>
+      <c r="A114" s="4">
+        <v>44034</v>
       </c>
       <c r="B114" s="2">
         <v>655</v>
@@ -16292,8 +16041,8 @@
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A115" s="2" t="s">
-        <v>272</v>
+      <c r="A115" s="4">
+        <v>44035</v>
       </c>
       <c r="B115" s="2">
         <v>549</v>
@@ -16354,8 +16103,8 @@
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A116" s="2" t="s">
-        <v>273</v>
+      <c r="A116" s="4">
+        <v>44036</v>
       </c>
       <c r="B116" s="2">
         <v>376</v>
@@ -16416,8 +16165,8 @@
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A117" s="2" t="s">
-        <v>274</v>
+      <c r="A117" s="4">
+        <v>44037</v>
       </c>
       <c r="B117" s="2">
         <v>160</v>
@@ -16478,8 +16227,8 @@
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A118" s="2" t="s">
-        <v>275</v>
+      <c r="A118" s="4">
+        <v>44038</v>
       </c>
       <c r="B118" s="2">
         <v>236</v>
@@ -16540,8 +16289,8 @@
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A119" s="2" t="s">
-        <v>276</v>
+      <c r="A119" s="4">
+        <v>44039</v>
       </c>
       <c r="B119" s="2">
         <v>303</v>
@@ -16602,8 +16351,8 @@
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A120" s="2" t="s">
-        <v>277</v>
+      <c r="A120" s="4">
+        <v>44040</v>
       </c>
       <c r="B120" s="2">
         <v>220</v>
@@ -16664,8 +16413,8 @@
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A121" s="2" t="s">
-        <v>278</v>
+      <c r="A121" s="4">
+        <v>44041</v>
       </c>
       <c r="B121" s="2">
         <v>205</v>
@@ -16726,8 +16475,8 @@
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A122" s="2" t="s">
-        <v>279</v>
+      <c r="A122" s="4">
+        <v>44042</v>
       </c>
       <c r="B122" s="2">
         <v>222</v>
@@ -16788,8 +16537,8 @@
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A123" s="2" t="s">
-        <v>280</v>
+      <c r="A123" s="4">
+        <v>44043</v>
       </c>
       <c r="B123" s="2">
         <v>127</v>
@@ -16850,8 +16599,8 @@
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A124" s="2" t="s">
-        <v>281</v>
+      <c r="A124" s="4">
+        <v>44044</v>
       </c>
       <c r="B124" s="2">
         <v>87</v>
@@ -16912,8 +16661,8 @@
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A125" s="2" t="s">
-        <v>282</v>
+      <c r="A125" s="4">
+        <v>44045</v>
       </c>
       <c r="B125" s="2">
         <v>83</v>
@@ -16974,8 +16723,8 @@
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A126" s="2" t="s">
-        <v>283</v>
+      <c r="A126" s="4">
+        <v>44046</v>
       </c>
       <c r="B126" s="2">
         <v>103</v>
@@ -17036,8 +16785,8 @@
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A127" s="2" t="s">
-        <v>284</v>
+      <c r="A127" s="4">
+        <v>44047</v>
       </c>
       <c r="B127" s="2">
         <v>144</v>
@@ -17098,8 +16847,8 @@
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A128" s="2" t="s">
-        <v>285</v>
+      <c r="A128" s="4">
+        <v>44048</v>
       </c>
       <c r="B128" s="2">
         <v>239</v>
@@ -17160,8 +16909,8 @@
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A129" s="2" t="s">
-        <v>286</v>
+      <c r="A129" s="4">
+        <v>44049</v>
       </c>
       <c r="B129" s="2">
         <v>188</v>
@@ -17222,8 +16971,8 @@
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A130" s="2" t="s">
-        <v>287</v>
+      <c r="A130" s="4">
+        <v>44050</v>
       </c>
       <c r="B130" s="2">
         <v>100</v>
@@ -17284,8 +17033,8 @@
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A131" s="2" t="s">
-        <v>288</v>
+      <c r="A131" s="4">
+        <v>44051</v>
       </c>
       <c r="B131" s="2">
         <v>33</v>
@@ -17346,8 +17095,8 @@
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A132" s="2" t="s">
-        <v>289</v>
+      <c r="A132" s="4">
+        <v>44052</v>
       </c>
       <c r="B132" s="2">
         <v>50</v>
@@ -17408,8 +17157,8 @@
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A133" s="2" t="s">
-        <v>290</v>
+      <c r="A133" s="4">
+        <v>44053</v>
       </c>
       <c r="B133" s="2">
         <v>90</v>
@@ -17470,8 +17219,8 @@
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A134" s="2" t="s">
-        <v>291</v>
+      <c r="A134" s="4">
+        <v>44054</v>
       </c>
       <c r="B134" s="2">
         <v>100</v>
@@ -17532,8 +17281,8 @@
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A135" s="2" t="s">
-        <v>292</v>
+      <c r="A135" s="4">
+        <v>44055</v>
       </c>
       <c r="B135" s="2">
         <v>319</v>
@@ -17594,8 +17343,8 @@
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A136" s="2" t="s">
-        <v>293</v>
+      <c r="A136" s="4">
+        <v>44056</v>
       </c>
       <c r="B136" s="2">
         <v>952</v>
@@ -17656,8 +17405,8 @@
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A137" s="2" t="s">
-        <v>294</v>
+      <c r="A137" s="4">
+        <v>44057</v>
       </c>
       <c r="B137" s="2">
         <v>1200</v>
@@ -17718,8 +17467,8 @@
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A138" s="2" t="s">
-        <v>295</v>
+      <c r="A138" s="4">
+        <v>44058</v>
       </c>
       <c r="B138" s="2">
         <v>1261</v>
@@ -17780,8 +17529,8 @@
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A139" s="2" t="s">
-        <v>296</v>
+      <c r="A139" s="4">
+        <v>44059</v>
       </c>
       <c r="B139" s="2">
         <v>819</v>
@@ -17842,8 +17591,8 @@
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A140" s="2" t="s">
-        <v>297</v>
+      <c r="A140" s="4">
+        <v>44060</v>
       </c>
       <c r="B140" s="2">
         <v>790</v>
@@ -17904,8 +17653,8 @@
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A141" s="2" t="s">
-        <v>298</v>
+      <c r="A141" s="4">
+        <v>44061</v>
       </c>
       <c r="B141" s="2">
         <v>679</v>
@@ -17966,8 +17715,8 @@
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A142" s="2" t="s">
-        <v>299</v>
+      <c r="A142" s="4">
+        <v>44062</v>
       </c>
       <c r="B142" s="2">
         <v>599</v>
@@ -18028,8 +17777,8 @@
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A143" s="2" t="s">
-        <v>300</v>
+      <c r="A143" s="4">
+        <v>44063</v>
       </c>
       <c r="B143" s="2">
         <v>486</v>
@@ -18090,8 +17839,8 @@
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A144" s="2" t="s">
-        <v>301</v>
+      <c r="A144" s="4">
+        <v>44064</v>
       </c>
       <c r="B144" s="2">
         <v>387</v>
@@ -18152,8 +17901,8 @@
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A145" s="2" t="s">
-        <v>302</v>
+      <c r="A145" s="4">
+        <v>44065</v>
       </c>
       <c r="B145" s="2">
         <v>230</v>
@@ -18214,8 +17963,8 @@
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A146" s="2" t="s">
-        <v>303</v>
+      <c r="A146" s="4">
+        <v>44066</v>
       </c>
       <c r="B146" s="2">
         <v>175</v>
@@ -18276,8 +18025,8 @@
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A147" s="2" t="s">
-        <v>304</v>
+      <c r="A147" s="4">
+        <v>44067</v>
       </c>
       <c r="B147" s="2">
         <v>164</v>
@@ -18338,8 +18087,8 @@
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A148" s="2" t="s">
-        <v>305</v>
+      <c r="A148" s="4">
+        <v>44068</v>
       </c>
       <c r="B148" s="2">
         <v>134</v>
@@ -18400,8 +18149,8 @@
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A149" s="2" t="s">
-        <v>306</v>
+      <c r="A149" s="4">
+        <v>44069</v>
       </c>
       <c r="B149" s="2">
         <v>224</v>
@@ -18462,8 +18211,8 @@
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A150" s="2" t="s">
-        <v>307</v>
+      <c r="A150" s="4">
+        <v>44070</v>
       </c>
       <c r="B150" s="2">
         <v>282</v>
@@ -18524,8 +18273,8 @@
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A151" s="2" t="s">
-        <v>308</v>
+      <c r="A151" s="4">
+        <v>44071</v>
       </c>
       <c r="B151" s="2">
         <v>328</v>
@@ -18586,8 +18335,8 @@
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A152" s="2" t="s">
-        <v>309</v>
+      <c r="A152" s="4">
+        <v>44072</v>
       </c>
       <c r="B152" s="2">
         <v>204</v>
@@ -18648,8 +18397,8 @@
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A153" s="2" t="s">
-        <v>310</v>
+      <c r="A153" s="4">
+        <v>44073</v>
       </c>
       <c r="B153" s="2">
         <v>109</v>
@@ -18710,8 +18459,8 @@
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A154" s="2" t="s">
-        <v>311</v>
+      <c r="A154" s="4">
+        <v>44074</v>
       </c>
       <c r="B154" s="2">
         <v>190</v>
@@ -18772,8 +18521,8 @@
       </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A155" s="2" t="s">
-        <v>312</v>
+      <c r="A155" s="4">
+        <v>44075</v>
       </c>
       <c r="B155" s="2">
         <v>181</v>
@@ -18834,8 +18583,8 @@
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A156" s="2" t="s">
-        <v>313</v>
+      <c r="A156" s="4">
+        <v>44076</v>
       </c>
       <c r="B156" s="2">
         <v>161</v>
@@ -18896,8 +18645,8 @@
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A157" s="2" t="s">
-        <v>314</v>
+      <c r="A157" s="4">
+        <v>44077</v>
       </c>
       <c r="B157" s="2">
         <v>273</v>
@@ -18958,8 +18707,8 @@
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A158" s="2" t="s">
-        <v>315</v>
+      <c r="A158" s="4">
+        <v>44078</v>
       </c>
       <c r="B158" s="2">
         <v>138</v>
@@ -19020,8 +18769,8 @@
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A159" s="2" t="s">
-        <v>316</v>
+      <c r="A159" s="4">
+        <v>44079</v>
       </c>
       <c r="B159" s="2">
         <v>61</v>
@@ -19082,8 +18831,8 @@
       </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A160" s="2" t="s">
-        <v>317</v>
+      <c r="A160" s="4">
+        <v>44080</v>
       </c>
       <c r="B160" s="2">
         <v>49</v>
@@ -19144,8 +18893,8 @@
       </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A161" s="2" t="s">
-        <v>318</v>
+      <c r="A161" s="4">
+        <v>44081</v>
       </c>
       <c r="B161" s="2">
         <v>68</v>
@@ -19206,8 +18955,8 @@
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A162" s="2" t="s">
-        <v>319</v>
+      <c r="A162" s="4">
+        <v>44082</v>
       </c>
       <c r="B162" s="2">
         <v>148</v>
@@ -19268,8 +19017,8 @@
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A163" s="2" t="s">
-        <v>320</v>
+      <c r="A163" s="4">
+        <v>44083</v>
       </c>
       <c r="B163" s="2">
         <v>111</v>
@@ -19330,8 +19079,8 @@
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A164" s="2" t="s">
-        <v>321</v>
+      <c r="A164" s="4">
+        <v>44084</v>
       </c>
       <c r="B164" s="2">
         <v>79</v>
@@ -19392,8 +19141,8 @@
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A165" s="2" t="s">
-        <v>322</v>
+      <c r="A165" s="4">
+        <v>44085</v>
       </c>
       <c r="B165" s="2">
         <v>23</v>
@@ -19454,8 +19203,8 @@
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A166" s="2" t="s">
-        <v>323</v>
+      <c r="A166" s="4">
+        <v>44086</v>
       </c>
       <c r="B166" s="2">
         <v>9</v>
@@ -19516,8 +19265,8 @@
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A167" s="2" t="s">
-        <v>324</v>
+      <c r="A167" s="4">
+        <v>44087</v>
       </c>
       <c r="B167" s="2">
         <v>29</v>
@@ -19578,8 +19327,8 @@
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A168" s="2" t="s">
-        <v>325</v>
+      <c r="A168" s="4">
+        <v>44088</v>
       </c>
       <c r="B168" s="2">
         <v>63</v>
@@ -19640,8 +19389,8 @@
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A169" s="2" t="s">
-        <v>326</v>
+      <c r="A169" s="4">
+        <v>44089</v>
       </c>
       <c r="B169" s="2">
         <v>70</v>
@@ -19702,8 +19451,8 @@
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A170" s="2" t="s">
-        <v>327</v>
+      <c r="A170" s="4">
+        <v>44090</v>
       </c>
       <c r="B170" s="2">
         <v>79</v>
@@ -19764,8 +19513,8 @@
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A171" s="2" t="s">
-        <v>328</v>
+      <c r="A171" s="4">
+        <v>44091</v>
       </c>
       <c r="B171" s="2">
         <v>111</v>
@@ -19826,8 +19575,8 @@
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A172" s="2" t="s">
-        <v>329</v>
+      <c r="A172" s="4">
+        <v>44092</v>
       </c>
       <c r="B172" s="2">
         <v>115</v>
@@ -19888,8 +19637,8 @@
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A173" s="2" t="s">
-        <v>330</v>
+      <c r="A173" s="4">
+        <v>44093</v>
       </c>
       <c r="B173" s="2">
         <v>103</v>
@@ -19950,8 +19699,8 @@
       </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A174" s="2" t="s">
-        <v>331</v>
+      <c r="A174" s="4">
+        <v>44094</v>
       </c>
       <c r="B174" s="2">
         <v>71</v>
@@ -20012,8 +19761,8 @@
       </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A175" s="2" t="s">
-        <v>332</v>
+      <c r="A175" s="4">
+        <v>44095</v>
       </c>
       <c r="B175" s="2">
         <v>132</v>
@@ -20074,8 +19823,8 @@
       </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A176" s="2" t="s">
-        <v>333</v>
+      <c r="A176" s="4">
+        <v>44096</v>
       </c>
       <c r="B176" s="2">
         <v>218</v>
